--- a/仕様/式样.xlsx
+++ b/仕様/式样.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6CDA0E-0E88-41AD-B990-52946007AD60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
     <sheet name="检查一览" sheetId="10" r:id="rId10"/>
     <sheet name="检查明細" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="190">
   <si>
     <t>画面</t>
   </si>
@@ -236,10 +237,6 @@
   </si>
   <si>
     <t>数字比较</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(parseFloat({in1})&gt;(parseFloat({kj0})-parseFloat({kj1})) &amp;&amp; parseFloat({in1})&lt;(parseFloat({kj0})+parseFloat({kj2})))</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -625,12 +622,94 @@
     <t>检查 检查计划是否存在 ，不存在 报错</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>312D00001</t>
+  </si>
+  <si>
+    <t>治具BARCODE</t>
+  </si>
+  <si>
+    <t>扫码信息与治具ID一致</t>
+  </si>
+  <si>
+    <t>312D00002</t>
+  </si>
+  <si>
+    <t>卷尺(基準値±工差以内)</t>
+  </si>
+  <si>
+    <t>parseFloat({in1})&gt;(parseFloat({kj0})-parseFloat({kj1})) &amp;&amp; parseFloat({in1})&lt;(parseFloat({kj0})+parseFloat({kj2}))</t>
+  </si>
+  <si>
+    <t>输入尺寸在基准工差范围内</t>
+  </si>
+  <si>
+    <t>312D00003</t>
+  </si>
+  <si>
+    <t>判定</t>
+  </si>
+  <si>
+    <t>手动选择合/否</t>
+  </si>
+  <si>
+    <t>312D00004</t>
+  </si>
+  <si>
+    <t>BARCODE</t>
+  </si>
+  <si>
+    <t>(/{kj0}/gi).test('{in1}')</t>
+  </si>
+  <si>
+    <t>扫码信息与基准信息一致（允许通配符）</t>
+  </si>
+  <si>
+    <t>312D00005</t>
+  </si>
+  <si>
+    <t>卷尺(基準値±工差以内) &gt;= &lt;=</t>
+  </si>
+  <si>
+    <t>parseFloat({in1})&gt;=(parseFloat({kj0})-parseFloat({kj1})) &amp;&amp; parseFloat({in1})&lt;=(parseFloat({kj0})+parseFloat({kj2}))</t>
+  </si>
+  <si>
+    <t>parseFloat({in1})&gt;(parseFloat({kj0})-parseFloat({kj1})) &amp;&amp; parseFloat({in1})&lt;(parseFloat({kj0})+parseFloat({kj2}))</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>.{1} 匹配任意字符 1次</t>
+  </si>
+  <si>
+    <t>.{2} 匹配任意字符 2次</t>
+  </si>
+  <si>
+    <t>.{0,}匹配任意字符 0到多次</t>
+  </si>
+  <si>
+    <t>.{1,}匹配任意字符 0到多次</t>
+  </si>
+  <si>
+    <t>.{0,1}匹配任意字符 0到1次</t>
+  </si>
+  <si>
+    <t>前提：当检查规则是下面这个的时候</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>那么基准值如果需要 通配符 参照下面 （类似 * 的意思）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>关于 基准值 公差  通配符的使用</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,8 +730,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,8 +762,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -754,11 +857,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -779,6 +949,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -818,7 +1018,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -861,7 +1067,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="流程图: 磁盘 3"/>
+        <xdr:cNvPr id="3" name="流程图: 磁盘 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -916,7 +1128,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 4"/>
+        <xdr:cNvPr id="4" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -980,7 +1198,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接箭头连接符 12"/>
+        <xdr:cNvPr id="7" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="4"/>
           <a:endCxn id="4" idx="1"/>
@@ -1034,7 +1258,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1072,7 +1302,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="流程图: 磁盘 3"/>
+        <xdr:cNvPr id="9" name="流程图: 磁盘 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1127,7 +1363,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="4"/>
           <a:endCxn id="4" idx="1"/>
@@ -1180,7 +1422,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="流程图: 磁盘 3"/>
+        <xdr:cNvPr id="13" name="流程图: 磁盘 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1235,7 +1483,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="13" idx="2"/>
@@ -1288,7 +1542,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="流程图: 磁盘 3"/>
+        <xdr:cNvPr id="18" name="流程图: 磁盘 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1348,7 +1608,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1386,7 +1652,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 2"/>
+        <xdr:cNvPr id="4" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1446,7 +1718,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 3"/>
+        <xdr:cNvPr id="5" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="4"/>
           <a:endCxn id="4" idx="1"/>
@@ -1500,7 +1778,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矩形标注 10"/>
+        <xdr:cNvPr id="8" name="矩形标注 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1559,7 +1843,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形标注 10"/>
+        <xdr:cNvPr id="13" name="矩形标注 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1622,7 +1912,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="流程图: 磁盘 3"/>
+        <xdr:cNvPr id="14" name="流程图: 磁盘 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1677,7 +1973,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="流程图: 磁盘 3"/>
+        <xdr:cNvPr id="15" name="流程图: 磁盘 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1732,7 +2034,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1775,7 +2083,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1813,7 +2127,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="流程图: 磁盘 3"/>
+        <xdr:cNvPr id="4" name="流程图: 磁盘 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1868,7 +2188,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1928,7 +2254,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1966,7 +2298,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="左右箭头 10"/>
+        <xdr:cNvPr id="11" name="左右箭头 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2020,7 +2358,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="4"/>
           <a:endCxn id="5" idx="1"/>
@@ -2079,7 +2423,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="流程图: 磁盘 2"/>
+        <xdr:cNvPr id="3" name="流程图: 磁盘 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2134,7 +2484,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2194,7 +2550,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="4"/>
           <a:endCxn id="4" idx="1"/>
@@ -2248,7 +2610,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2286,7 +2654,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2324,7 +2698,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="左右箭头 5"/>
+        <xdr:cNvPr id="6" name="左右箭头 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2383,7 +2763,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2421,7 +2807,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="流程图: 磁盘 1"/>
+        <xdr:cNvPr id="2" name="流程图: 磁盘 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2476,7 +2868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2536,7 +2934,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="4"/>
           <a:endCxn id="3" idx="1"/>
@@ -2590,7 +2994,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2628,7 +3038,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="左右箭头 9"/>
+        <xdr:cNvPr id="10" name="左右箭头 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2682,7 +3098,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矩形标注 10"/>
+        <xdr:cNvPr id="11" name="矩形标注 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2741,7 +3163,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形标注 11"/>
+        <xdr:cNvPr id="12" name="矩形标注 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2805,7 +3233,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2843,7 +3277,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="流程图: 磁盘 1"/>
+        <xdr:cNvPr id="2" name="流程图: 磁盘 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2898,7 +3338,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2958,7 +3404,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="4"/>
           <a:endCxn id="3" idx="1"/>
@@ -3012,7 +3464,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3050,7 +3508,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3088,7 +3552,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvPr id="11" name="矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3148,7 +3618,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvPr id="12" name="矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3208,7 +3684,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvPr id="13" name="矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3268,7 +3750,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="肘形连接符 14"/>
+        <xdr:cNvPr id="15" name="肘形连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="3"/>
           <a:endCxn id="12" idx="0"/>
@@ -3321,7 +3809,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="肘形连接符 16"/>
+        <xdr:cNvPr id="17" name="肘形连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="11" idx="3"/>
           <a:endCxn id="10" idx="1"/>
@@ -3374,7 +3868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvPr id="19" name="矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3434,7 +3934,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="肘形连接符 19"/>
+        <xdr:cNvPr id="20" name="肘形连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="0"/>
           <a:endCxn id="22" idx="2"/>
@@ -3489,7 +3995,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvPr id="22" name="矩形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3554,7 +4066,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3592,7 +4110,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="流程图: 磁盘 2"/>
+        <xdr:cNvPr id="2" name="流程图: 磁盘 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3640,7 +4164,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3674,7 +4198,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 3"/>
+        <xdr:cNvPr id="3" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3734,7 +4264,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接箭头连接符 6"/>
+        <xdr:cNvPr id="4" name="直接箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="4"/>
           <a:endCxn id="3" idx="1"/>
@@ -3788,7 +4324,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="左右箭头 5"/>
+        <xdr:cNvPr id="7" name="左右箭头 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3842,7 +4384,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3885,7 +4433,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="流程图: 磁盘 2"/>
+        <xdr:cNvPr id="3" name="流程图: 磁盘 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3933,7 +4487,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3964,7 +4518,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4024,7 +4584,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 6"/>
+        <xdr:cNvPr id="5" name="直接箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="4" idx="3"/>
@@ -4078,7 +4644,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4116,7 +4688,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="流程图: 磁盘 2"/>
+        <xdr:cNvPr id="12" name="流程图: 磁盘 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4164,7 +4742,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4195,7 +4773,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="流程图: 磁盘 2"/>
+        <xdr:cNvPr id="13" name="流程图: 磁盘 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4250,7 +4834,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="流程图: 磁盘 1"/>
+        <xdr:cNvPr id="14" name="流程图: 磁盘 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4305,7 +4895,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="流程图: 磁盘 1"/>
+        <xdr:cNvPr id="15" name="流程图: 磁盘 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4360,7 +4956,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="流程图: 磁盘 2"/>
+        <xdr:cNvPr id="16" name="流程图: 磁盘 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4408,7 +5010,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4442,7 +5044,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="カギ線コネクタ 17"/>
+        <xdr:cNvPr id="18" name="カギ線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="4"/>
           <a:endCxn id="4" idx="1"/>
@@ -4492,7 +5100,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4530,7 +5144,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4568,7 +5188,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="四角形吹き出し 22"/>
+        <xdr:cNvPr id="23" name="四角形吹き出し 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4614,6 +5240,646 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>170026</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>76163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71BB4B3-F781-4706-AFC0-5BF7E95B435F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="27632025"/>
+          <a:ext cx="11390476" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>293474</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>122961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A7ED49-68A1-4C6E-ADA4-74CF848CA91B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="29822775"/>
+          <a:ext cx="14409524" cy="6914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278DAA59-A0D2-40CE-9EF3-882DF5D0EC20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="36518850"/>
+          <a:ext cx="876300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C84C6F-B42F-40A7-AC86-3D660EEF7C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3514725" y="28384500"/>
+          <a:ext cx="7686675" cy="8253413"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>46486</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>199493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63094111-4729-4D52-88A9-189914AE768B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16354425" y="30146625"/>
+          <a:ext cx="9114286" cy="4257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EC15CE-EA5A-414E-AC0B-81098F65F53E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="33394650"/>
+          <a:ext cx="7267575" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1223304-AF76-4E86-B79E-D08D3A0C457F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16316325" y="33099375"/>
+          <a:ext cx="9086850" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3583A624-D8F6-446E-8450-1A3C3677149E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+          <a:endCxn id="19" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15849600" y="33266063"/>
+          <a:ext cx="466725" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631F9DCD-460D-4F46-9D72-2CA0D6841675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16363950" y="33604200"/>
+          <a:ext cx="9086850" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31570B8E-0FFD-466D-85EB-3B1DCFF00229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="36452175"/>
+          <a:ext cx="7343775" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEB3E64-8849-4A84-BBA1-0D1303C4AAAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="1"/>
+          <a:endCxn id="30" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15906750" y="33770888"/>
+          <a:ext cx="457200" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4634,7 +5900,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="流程图: 磁盘 3"/>
+        <xdr:cNvPr id="3" name="流程图: 磁盘 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4689,7 +5961,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 4"/>
+        <xdr:cNvPr id="4" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4745,7 +6023,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="左右箭头 10"/>
+        <xdr:cNvPr id="6" name="左右箭头 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4799,7 +6083,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接箭头连接符 12"/>
+        <xdr:cNvPr id="7" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="4"/>
           <a:endCxn id="4" idx="1"/>
@@ -4853,7 +6143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4891,7 +6187,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4929,7 +6231,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4967,7 +6275,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="フローチャート: 複数書類 15"/>
+        <xdr:cNvPr id="16" name="フローチャート: 複数書類 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5023,7 +6337,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="2"/>
           <a:endCxn id="4" idx="0"/>
@@ -5078,7 +6398,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="流程图: 磁盘 3"/>
+        <xdr:cNvPr id="3" name="流程图: 磁盘 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5133,7 +6459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 4"/>
+        <xdr:cNvPr id="4" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5197,7 +6529,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="左右箭头 10"/>
+        <xdr:cNvPr id="6" name="左右箭头 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5251,7 +6589,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接箭头连接符 12"/>
+        <xdr:cNvPr id="7" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="4"/>
           <a:endCxn id="4" idx="1"/>
@@ -5305,7 +6649,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5343,7 +6693,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5381,7 +6737,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="フローチャート: 複数書類 9"/>
+        <xdr:cNvPr id="10" name="フローチャート: 複数書類 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5437,7 +6799,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="2"/>
           <a:endCxn id="4" idx="0"/>
@@ -5487,7 +6855,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5589,6 +6963,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5624,6 +7015,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5799,7 +7207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AK40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -7322,11 +8730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="C1:AK155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA113" sqref="AA113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -7342,7 +8750,7 @@
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -7362,7 +8770,7 @@
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="U1" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V1" s="12"/>
       <c r="W1" s="12"/>
@@ -8720,7 +10128,7 @@
     <row r="38" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C38" s="5"/>
       <c r="D38" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -9545,7 +10953,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -9814,11 +11222,11 @@
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -9856,15 +11264,15 @@
       <c r="D68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
@@ -9934,7 +11342,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -9975,7 +11383,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -10014,7 +11422,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="H72" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -10052,7 +11460,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -10091,7 +11499,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="H74" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -10127,7 +11535,7 @@
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -10204,7 +11612,7 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
@@ -10244,7 +11652,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -10284,7 +11692,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -10322,7 +11730,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -10362,7 +11770,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -10436,7 +11844,7 @@
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -10476,7 +11884,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
@@ -10514,7 +11922,7 @@
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
@@ -10554,7 +11962,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
@@ -10592,7 +12000,7 @@
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
@@ -10632,7 +12040,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
@@ -10670,7 +12078,7 @@
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -10709,7 +12117,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
@@ -10787,7 +12195,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
@@ -10827,7 +12235,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -10864,7 +12272,7 @@
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
@@ -10903,7 +12311,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
@@ -10941,7 +12349,7 @@
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
@@ -10980,7 +12388,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
@@ -11055,7 +12463,7 @@
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
@@ -11095,7 +12503,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
@@ -11134,7 +12542,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
@@ -11209,7 +12617,7 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
@@ -11249,7 +12657,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
@@ -11288,7 +12696,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
@@ -11327,7 +12735,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
@@ -11399,7 +12807,7 @@
     <row r="108" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C108" s="5"/>
       <c r="D108" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -11476,7 +12884,7 @@
       <c r="C110" s="5"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -11552,7 +12960,7 @@
       <c r="C112" s="5"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
@@ -11628,7 +13036,7 @@
       <c r="C114" s="5"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -11704,7 +13112,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -11779,7 +13187,7 @@
     <row r="118" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C118" s="5"/>
       <c r="D118" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -11792,7 +13200,7 @@
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
@@ -11858,7 +13266,7 @@
       <c r="C120" s="5"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -11970,7 +13378,7 @@
     <row r="123" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C123" s="5"/>
       <c r="D123" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -12010,7 +13418,7 @@
       <c r="C124" s="5"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
@@ -12122,7 +13530,7 @@
     <row r="127" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C127" s="5"/>
       <c r="D127" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -12162,7 +13570,7 @@
       <c r="C128" s="5"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
@@ -12175,7 +13583,7 @@
       <c r="N128" s="6"/>
       <c r="O128" s="6"/>
       <c r="P128" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
@@ -12239,7 +13647,7 @@
     <row r="130" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C130" s="5"/>
       <c r="D130" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -12278,7 +13686,7 @@
     <row r="131" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C131" s="5"/>
       <c r="E131" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -12427,7 +13835,7 @@
     <row r="135" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C135" s="5"/>
       <c r="D135" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -12467,7 +13875,7 @@
       <c r="C136" s="5"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -13214,10 +14622,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="C1:AK100"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15695,7 +17103,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -15807,7 +17215,7 @@
     <row r="70" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C70" s="5"/>
       <c r="D70" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -15847,7 +17255,7 @@
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -15886,7 +17294,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -15925,7 +17333,7 @@
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -15936,7 +17344,7 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
@@ -16002,7 +17410,7 @@
     <row r="75" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C75" s="5"/>
       <c r="D75" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -16042,11 +17450,11 @@
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -16083,11 +17491,11 @@
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
@@ -16126,7 +17534,7 @@
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -16200,11 +17608,11 @@
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
@@ -16243,7 +17651,7 @@
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -16279,7 +17687,7 @@
     <row r="82" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C82" s="5"/>
       <c r="D82" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -16319,11 +17727,11 @@
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -16362,7 +17770,7 @@
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -16472,7 +17880,7 @@
     <row r="87" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C87" s="5"/>
       <c r="D87" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -16512,7 +17920,7 @@
       <c r="C88" s="5"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -17000,7 +18408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:AK87"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -20288,7 +21696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:AK86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -23539,7 +24947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:AK79"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -26533,7 +27941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:AK82"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -29621,10 +31029,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AK89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="C1:AZ89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V98" sqref="V98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -32008,7 +33418,7 @@
       <c r="AJ63" s="6"/>
       <c r="AK63" s="7"/>
     </row>
-    <row r="64" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:37" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -32045,7 +33455,7 @@
       <c r="AJ64" s="6"/>
       <c r="AK64" s="7"/>
     </row>
-    <row r="65" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:52" ht="53.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C65" s="5"/>
       <c r="D65" s="6" t="s">
         <v>22</v>
@@ -32083,8 +33493,23 @@
       <c r="AI65" s="6"/>
       <c r="AJ65" s="6"/>
       <c r="AK65" s="7"/>
-    </row>
-    <row r="66" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="AV65" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW65" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX65" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY65" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ65" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="3:52" ht="200.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6" t="s">
@@ -32122,8 +33547,23 @@
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6"/>
       <c r="AK66" s="7"/>
-    </row>
-    <row r="67" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="AV66" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW66" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY66" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ66" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="3:52" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -32159,8 +33599,21 @@
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6"/>
       <c r="AK67" s="7"/>
-    </row>
-    <row r="68" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="AV67" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW67" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX67" s="20">
+        <v>2</v>
+      </c>
+      <c r="AY67" s="20"/>
+      <c r="AZ67" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="3:52" ht="105.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="5"/>
       <c r="D68" s="6" t="s">
         <v>26</v>
@@ -32198,8 +33651,23 @@
       <c r="AI68" s="6"/>
       <c r="AJ68" s="6"/>
       <c r="AK68" s="7"/>
-    </row>
-    <row r="69" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="AV68" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW68" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX68" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY68" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ68" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="3:52" ht="200.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6" t="s">
@@ -32237,8 +33705,23 @@
       <c r="AI69" s="6"/>
       <c r="AJ69" s="6"/>
       <c r="AK69" s="7"/>
-    </row>
-    <row r="70" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="AV69" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW69" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AX69" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY69" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ69" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -32275,7 +33758,7 @@
       <c r="AJ70" s="6"/>
       <c r="AK70" s="7"/>
     </row>
-    <row r="71" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -32312,9 +33795,9 @@
       <c r="AJ71" s="6"/>
       <c r="AK71" s="7"/>
     </row>
-    <row r="72" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C72" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -32351,11 +33834,11 @@
       <c r="AJ72" s="6"/>
       <c r="AK72" s="7"/>
     </row>
-    <row r="73" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -32390,12 +33873,12 @@
       <c r="AJ73" s="6"/>
       <c r="AK73" s="7"/>
     </row>
-    <row r="74" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -32429,7 +33912,7 @@
       <c r="AJ74" s="6"/>
       <c r="AK74" s="7"/>
     </row>
-    <row r="75" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -32466,11 +33949,11 @@
       <c r="AJ75" s="6"/>
       <c r="AK75" s="7"/>
     </row>
-    <row r="76" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -32505,7 +33988,7 @@
       <c r="AJ76" s="6"/>
       <c r="AK76" s="7"/>
     </row>
-    <row r="77" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -32518,9 +34001,7 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
@@ -32546,7 +34027,7 @@
       <c r="AJ77" s="6"/>
       <c r="AK77" s="7"/>
     </row>
-    <row r="78" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -32559,9 +34040,7 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
@@ -32587,7 +34066,7 @@
       <c r="AJ78" s="6"/>
       <c r="AK78" s="7"/>
     </row>
-    <row r="79" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -32624,7 +34103,7 @@
       <c r="AJ79" s="6"/>
       <c r="AK79" s="7"/>
     </row>
-    <row r="80" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -32698,190 +34177,238 @@
       <c r="AJ81" s="6"/>
       <c r="AK81" s="7"/>
     </row>
-    <row r="82" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C82" s="5"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
-      <c r="AA82" s="6"/>
-      <c r="AB82" s="6"/>
-      <c r="AC82" s="6"/>
-      <c r="AD82" s="6"/>
-      <c r="AE82" s="6"/>
-      <c r="AF82" s="6"/>
-      <c r="AG82" s="6"/>
-      <c r="AH82" s="6"/>
-      <c r="AI82" s="6"/>
-      <c r="AJ82" s="6"/>
-      <c r="AK82" s="7"/>
-    </row>
-    <row r="83" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
-      <c r="AA83" s="6"/>
-      <c r="AB83" s="6"/>
-      <c r="AC83" s="6"/>
-      <c r="AD83" s="6"/>
-      <c r="AE83" s="6"/>
-      <c r="AF83" s="6"/>
-      <c r="AG83" s="6"/>
-      <c r="AH83" s="6"/>
-      <c r="AI83" s="6"/>
-      <c r="AJ83" s="6"/>
-      <c r="AK83" s="7"/>
-    </row>
-    <row r="84" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C84" s="5"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
-      <c r="Y84" s="6"/>
-      <c r="Z84" s="6"/>
-      <c r="AA84" s="6"/>
-      <c r="AB84" s="6"/>
-      <c r="AC84" s="6"/>
-      <c r="AD84" s="6"/>
-      <c r="AE84" s="6"/>
-      <c r="AF84" s="6"/>
-      <c r="AG84" s="6"/>
-      <c r="AH84" s="6"/>
-      <c r="AI84" s="6"/>
-      <c r="AJ84" s="6"/>
-      <c r="AK84" s="7"/>
-    </row>
-    <row r="85" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C85" s="5"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
-      <c r="AA85" s="6"/>
-      <c r="AB85" s="6"/>
-      <c r="AC85" s="6"/>
-      <c r="AD85" s="6"/>
-      <c r="AE85" s="6"/>
-      <c r="AF85" s="6"/>
-      <c r="AG85" s="6"/>
-      <c r="AH85" s="6"/>
-      <c r="AI85" s="6"/>
-      <c r="AJ85" s="6"/>
-      <c r="AK85" s="7"/>
-    </row>
-    <row r="86" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C86" s="5"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
-      <c r="AA86" s="6"/>
-      <c r="AB86" s="6"/>
-      <c r="AC86" s="6"/>
-      <c r="AD86" s="6"/>
-      <c r="AE86" s="6"/>
-      <c r="AF86" s="6"/>
-      <c r="AG86" s="6"/>
-      <c r="AH86" s="6"/>
-      <c r="AI86" s="6"/>
-      <c r="AJ86" s="6"/>
-      <c r="AK86" s="7"/>
+    <row r="82" spans="3:37" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="C82" s="22"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="25"/>
+      <c r="H82" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I82" s="26"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="21">
+        <v>1</v>
+      </c>
+      <c r="L82" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="27"/>
+      <c r="AC82" s="27"/>
+      <c r="AD82" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE82" s="27"/>
+      <c r="AF82" s="27"/>
+      <c r="AG82" s="27"/>
+      <c r="AH82" s="27"/>
+      <c r="AI82" s="27"/>
+      <c r="AJ82" s="23"/>
+      <c r="AK82" s="28"/>
+    </row>
+    <row r="83" spans="3:37" s="29" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83" s="25"/>
+      <c r="H83" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="I83" s="26"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="21">
+        <v>0</v>
+      </c>
+      <c r="L83" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE83" s="27"/>
+      <c r="AF83" s="27"/>
+      <c r="AG83" s="27"/>
+      <c r="AH83" s="27"/>
+      <c r="AI83" s="27"/>
+      <c r="AJ83" s="23"/>
+      <c r="AK83" s="28"/>
+    </row>
+    <row r="84" spans="3:37" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="C84" s="22"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84" s="25"/>
+      <c r="H84" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I84" s="26"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="21">
+        <v>2</v>
+      </c>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE84" s="27"/>
+      <c r="AF84" s="27"/>
+      <c r="AG84" s="27"/>
+      <c r="AH84" s="27"/>
+      <c r="AI84" s="27"/>
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="28"/>
+    </row>
+    <row r="85" spans="3:37" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="C85" s="22"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G85" s="25"/>
+      <c r="H85" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I85" s="26"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="21">
+        <v>1</v>
+      </c>
+      <c r="L85" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27"/>
+      <c r="S85" s="27"/>
+      <c r="T85" s="27"/>
+      <c r="U85" s="27"/>
+      <c r="V85" s="27"/>
+      <c r="W85" s="27"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="27"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE85" s="27"/>
+      <c r="AF85" s="27"/>
+      <c r="AG85" s="27"/>
+      <c r="AH85" s="27"/>
+      <c r="AI85" s="27"/>
+      <c r="AJ85" s="23"/>
+      <c r="AK85" s="28"/>
+    </row>
+    <row r="86" spans="3:37" s="29" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C86" s="22"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G86" s="25"/>
+      <c r="H86" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I86" s="26"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="21">
+        <v>0</v>
+      </c>
+      <c r="L86" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="27"/>
+      <c r="S86" s="27"/>
+      <c r="T86" s="27"/>
+      <c r="U86" s="27"/>
+      <c r="V86" s="27"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE86" s="27"/>
+      <c r="AF86" s="27"/>
+      <c r="AG86" s="27"/>
+      <c r="AH86" s="27"/>
+      <c r="AI86" s="27"/>
+      <c r="AJ86" s="23"/>
+      <c r="AK86" s="28"/>
     </row>
     <row r="87" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C87" s="5"/>
@@ -32995,6 +34522,28 @@
       <c r="AK89" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="L82:AC82"/>
+    <mergeCell ref="L83:AC83"/>
+    <mergeCell ref="L84:AC84"/>
+    <mergeCell ref="L85:AC85"/>
+    <mergeCell ref="L86:AC86"/>
+    <mergeCell ref="AD82:AI82"/>
+    <mergeCell ref="AD83:AI83"/>
+    <mergeCell ref="AD84:AI84"/>
+    <mergeCell ref="AD85:AI85"/>
+    <mergeCell ref="AD86:AI86"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33003,10 +34552,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AK125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="C1:AK259"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="G134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE173" sqref="AE173"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -33021,7 +34572,7 @@
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -35409,7 +36960,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -35567,11 +37118,11 @@
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H69" s="6"/>
       <c r="J69" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -35607,7 +37158,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H70" s="6"/>
       <c r="J70" s="6" t="s">
@@ -35680,7 +37231,7 @@
     <row r="72" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C72" s="5"/>
       <c r="D72" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -36187,7 +37738,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
       <c r="F86" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -36642,7 +38193,7 @@
     <row r="98" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C98" s="5"/>
       <c r="D98" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -36682,7 +38233,7 @@
       <c r="C99" s="5"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -37386,7 +38937,7 @@
     <row r="118" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C118" s="5"/>
       <c r="D118" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -37426,7 +38977,7 @@
       <c r="C119" s="5"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -37436,7 +38987,7 @@
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N119" s="6"/>
       <c r="O119" s="6"/>
@@ -37576,8 +39127,9 @@
     </row>
     <row r="123" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C123" s="5"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
+      <c r="D123" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
@@ -37648,42 +39200,5014 @@
       <c r="AJ124" s="6"/>
       <c r="AK124" s="7"/>
     </row>
-    <row r="125" spans="3:37" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C125" s="8"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
-      <c r="N125" s="9"/>
-      <c r="O125" s="9"/>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="9"/>
-      <c r="R125" s="9"/>
-      <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
-      <c r="U125" s="9"/>
-      <c r="V125" s="9"/>
-      <c r="W125" s="9"/>
-      <c r="X125" s="9"/>
-      <c r="Y125" s="9"/>
-      <c r="Z125" s="9"/>
-      <c r="AA125" s="9"/>
-      <c r="AB125" s="9"/>
-      <c r="AC125" s="9"/>
-      <c r="AD125" s="9"/>
-      <c r="AE125" s="9"/>
-      <c r="AF125" s="9"/>
-      <c r="AG125" s="9"/>
-      <c r="AH125" s="9"/>
-      <c r="AI125" s="9"/>
-      <c r="AJ125" s="9"/>
-      <c r="AK125" s="10"/>
+    <row r="125" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="6"/>
+      <c r="T125" s="6"/>
+      <c r="U125" s="6"/>
+      <c r="V125" s="6"/>
+      <c r="W125" s="6"/>
+      <c r="X125" s="6"/>
+      <c r="Y125" s="6"/>
+      <c r="Z125" s="6"/>
+      <c r="AA125" s="6"/>
+      <c r="AB125" s="6"/>
+      <c r="AC125" s="6"/>
+      <c r="AD125" s="6"/>
+      <c r="AE125" s="6"/>
+      <c r="AF125" s="6"/>
+      <c r="AG125" s="6"/>
+      <c r="AH125" s="6"/>
+      <c r="AI125" s="6"/>
+      <c r="AJ125" s="6"/>
+      <c r="AK125" s="7"/>
+    </row>
+    <row r="126" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="6"/>
+      <c r="T126" s="6"/>
+      <c r="U126" s="6"/>
+      <c r="V126" s="6"/>
+      <c r="W126" s="6"/>
+      <c r="X126" s="6"/>
+      <c r="Y126" s="6"/>
+      <c r="Z126" s="6"/>
+      <c r="AA126" s="6"/>
+      <c r="AB126" s="6"/>
+      <c r="AC126" s="6"/>
+      <c r="AD126" s="6"/>
+      <c r="AE126" s="6"/>
+      <c r="AF126" s="6"/>
+      <c r="AG126" s="6"/>
+      <c r="AH126" s="6"/>
+      <c r="AI126" s="6"/>
+      <c r="AJ126" s="6"/>
+      <c r="AK126" s="7"/>
+    </row>
+    <row r="127" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="6"/>
+      <c r="T127" s="6"/>
+      <c r="U127" s="6"/>
+      <c r="V127" s="6"/>
+      <c r="W127" s="6"/>
+      <c r="X127" s="6"/>
+      <c r="Y127" s="6"/>
+      <c r="Z127" s="6"/>
+      <c r="AA127" s="6"/>
+      <c r="AB127" s="6"/>
+      <c r="AC127" s="6"/>
+      <c r="AD127" s="6"/>
+      <c r="AE127" s="6"/>
+      <c r="AF127" s="6"/>
+      <c r="AG127" s="6"/>
+      <c r="AH127" s="6"/>
+      <c r="AI127" s="6"/>
+      <c r="AJ127" s="6"/>
+      <c r="AK127" s="7"/>
+    </row>
+    <row r="128" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+      <c r="R128" s="6"/>
+      <c r="S128" s="6"/>
+      <c r="T128" s="6"/>
+      <c r="U128" s="6"/>
+      <c r="V128" s="6"/>
+      <c r="W128" s="6"/>
+      <c r="X128" s="6"/>
+      <c r="Y128" s="6"/>
+      <c r="Z128" s="6"/>
+      <c r="AA128" s="6"/>
+      <c r="AB128" s="6"/>
+      <c r="AC128" s="6"/>
+      <c r="AD128" s="6"/>
+      <c r="AE128" s="6"/>
+      <c r="AF128" s="6"/>
+      <c r="AG128" s="6"/>
+      <c r="AH128" s="6"/>
+      <c r="AI128" s="6"/>
+      <c r="AJ128" s="6"/>
+      <c r="AK128" s="7"/>
+    </row>
+    <row r="129" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6"/>
+      <c r="S129" s="6"/>
+      <c r="T129" s="6"/>
+      <c r="U129" s="6"/>
+      <c r="V129" s="6"/>
+      <c r="W129" s="6"/>
+      <c r="X129" s="6"/>
+      <c r="Y129" s="6"/>
+      <c r="Z129" s="6"/>
+      <c r="AA129" s="6"/>
+      <c r="AB129" s="6"/>
+      <c r="AC129" s="6"/>
+      <c r="AD129" s="6"/>
+      <c r="AE129" s="6"/>
+      <c r="AF129" s="6"/>
+      <c r="AG129" s="6"/>
+      <c r="AH129" s="6"/>
+      <c r="AI129" s="6"/>
+      <c r="AJ129" s="6"/>
+      <c r="AK129" s="7"/>
+    </row>
+    <row r="130" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="6"/>
+      <c r="T130" s="6"/>
+      <c r="U130" s="6"/>
+      <c r="V130" s="6"/>
+      <c r="W130" s="6"/>
+      <c r="X130" s="6"/>
+      <c r="Y130" s="6"/>
+      <c r="Z130" s="6"/>
+      <c r="AA130" s="6"/>
+      <c r="AB130" s="6"/>
+      <c r="AC130" s="6"/>
+      <c r="AD130" s="6"/>
+      <c r="AE130" s="6"/>
+      <c r="AF130" s="6"/>
+      <c r="AG130" s="6"/>
+      <c r="AH130" s="6"/>
+      <c r="AI130" s="6"/>
+      <c r="AJ130" s="6"/>
+      <c r="AK130" s="7"/>
+    </row>
+    <row r="131" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C131" s="5"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" t="s">
+        <v>182</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
+      <c r="S131" s="6"/>
+      <c r="T131" s="6"/>
+      <c r="U131" s="6"/>
+      <c r="V131" s="6"/>
+      <c r="W131" s="6"/>
+      <c r="X131" s="6"/>
+      <c r="Y131" s="6"/>
+      <c r="Z131" s="6"/>
+      <c r="AA131" s="6"/>
+      <c r="AB131" s="6"/>
+      <c r="AC131" s="6"/>
+      <c r="AD131" s="6"/>
+      <c r="AE131" s="6"/>
+      <c r="AF131" s="6"/>
+      <c r="AG131" s="6"/>
+      <c r="AH131" s="6"/>
+      <c r="AI131" s="6"/>
+      <c r="AJ131" s="6"/>
+      <c r="AK131" s="7"/>
+    </row>
+    <row r="132" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" t="s">
+        <v>183</v>
+      </c>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="6"/>
+      <c r="T132" s="6"/>
+      <c r="U132" s="6"/>
+      <c r="V132" s="6"/>
+      <c r="W132" s="6"/>
+      <c r="X132" s="6"/>
+      <c r="Y132" s="6"/>
+      <c r="Z132" s="6"/>
+      <c r="AA132" s="6"/>
+      <c r="AB132" s="6"/>
+      <c r="AC132" s="6"/>
+      <c r="AD132" s="6"/>
+      <c r="AE132" s="6"/>
+      <c r="AF132" s="6"/>
+      <c r="AG132" s="6"/>
+      <c r="AH132" s="6"/>
+      <c r="AI132" s="6"/>
+      <c r="AJ132" s="6"/>
+      <c r="AK132" s="7"/>
+    </row>
+    <row r="133" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" t="s">
+        <v>184</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="6"/>
+      <c r="T133" s="6"/>
+      <c r="U133" s="6"/>
+      <c r="V133" s="6"/>
+      <c r="W133" s="6"/>
+      <c r="X133" s="6"/>
+      <c r="Y133" s="6"/>
+      <c r="Z133" s="6"/>
+      <c r="AA133" s="6"/>
+      <c r="AB133" s="6"/>
+      <c r="AC133" s="6"/>
+      <c r="AD133" s="6"/>
+      <c r="AE133" s="6"/>
+      <c r="AF133" s="6"/>
+      <c r="AG133" s="6"/>
+      <c r="AH133" s="6"/>
+      <c r="AI133" s="6"/>
+      <c r="AJ133" s="6"/>
+      <c r="AK133" s="7"/>
+    </row>
+    <row r="134" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" t="s">
+        <v>185</v>
+      </c>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="6"/>
+      <c r="T134" s="6"/>
+      <c r="U134" s="6"/>
+      <c r="V134" s="6"/>
+      <c r="W134" s="6"/>
+      <c r="X134" s="6"/>
+      <c r="Y134" s="6"/>
+      <c r="Z134" s="6"/>
+      <c r="AA134" s="6"/>
+      <c r="AB134" s="6"/>
+      <c r="AC134" s="6"/>
+      <c r="AD134" s="6"/>
+      <c r="AE134" s="6"/>
+      <c r="AF134" s="6"/>
+      <c r="AG134" s="6"/>
+      <c r="AH134" s="6"/>
+      <c r="AI134" s="6"/>
+      <c r="AJ134" s="6"/>
+      <c r="AK134" s="7"/>
+    </row>
+    <row r="135" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" t="s">
+        <v>186</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="6"/>
+      <c r="T135" s="6"/>
+      <c r="U135" s="6"/>
+      <c r="V135" s="6"/>
+      <c r="W135" s="6"/>
+      <c r="X135" s="6"/>
+      <c r="Y135" s="6"/>
+      <c r="Z135" s="6"/>
+      <c r="AA135" s="6"/>
+      <c r="AB135" s="6"/>
+      <c r="AC135" s="6"/>
+      <c r="AD135" s="6"/>
+      <c r="AE135" s="6"/>
+      <c r="AF135" s="6"/>
+      <c r="AG135" s="6"/>
+      <c r="AH135" s="6"/>
+      <c r="AI135" s="6"/>
+      <c r="AJ135" s="6"/>
+      <c r="AK135" s="7"/>
+    </row>
+    <row r="136" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="6"/>
+      <c r="S136" s="6"/>
+      <c r="T136" s="6"/>
+      <c r="U136" s="6"/>
+      <c r="V136" s="6"/>
+      <c r="W136" s="6"/>
+      <c r="X136" s="6"/>
+      <c r="Y136" s="6"/>
+      <c r="Z136" s="6"/>
+      <c r="AA136" s="6"/>
+      <c r="AB136" s="6"/>
+      <c r="AC136" s="6"/>
+      <c r="AD136" s="6"/>
+      <c r="AE136" s="6"/>
+      <c r="AF136" s="6"/>
+      <c r="AG136" s="6"/>
+      <c r="AH136" s="6"/>
+      <c r="AI136" s="6"/>
+      <c r="AJ136" s="6"/>
+      <c r="AK136" s="7"/>
+    </row>
+    <row r="137" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="6"/>
+      <c r="T137" s="6"/>
+      <c r="U137" s="6"/>
+      <c r="V137" s="6"/>
+      <c r="W137" s="6"/>
+      <c r="X137" s="6"/>
+      <c r="Y137" s="6"/>
+      <c r="Z137" s="6"/>
+      <c r="AA137" s="6"/>
+      <c r="AB137" s="6"/>
+      <c r="AC137" s="6"/>
+      <c r="AD137" s="6"/>
+      <c r="AE137" s="6"/>
+      <c r="AF137" s="6"/>
+      <c r="AG137" s="6"/>
+      <c r="AH137" s="6"/>
+      <c r="AI137" s="6"/>
+      <c r="AJ137" s="6"/>
+      <c r="AK137" s="7"/>
+    </row>
+    <row r="138" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="6"/>
+      <c r="T138" s="6"/>
+      <c r="U138" s="6"/>
+      <c r="V138" s="6"/>
+      <c r="W138" s="6"/>
+      <c r="X138" s="6"/>
+      <c r="Y138" s="6"/>
+      <c r="Z138" s="6"/>
+      <c r="AA138" s="6"/>
+      <c r="AB138" s="6"/>
+      <c r="AC138" s="6"/>
+      <c r="AD138" s="6"/>
+      <c r="AE138" s="6"/>
+      <c r="AF138" s="6"/>
+      <c r="AG138" s="6"/>
+      <c r="AH138" s="6"/>
+      <c r="AI138" s="6"/>
+      <c r="AJ138" s="6"/>
+      <c r="AK138" s="7"/>
+    </row>
+    <row r="139" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="6"/>
+      <c r="T139" s="6"/>
+      <c r="U139" s="6"/>
+      <c r="V139" s="6"/>
+      <c r="W139" s="6"/>
+      <c r="X139" s="6"/>
+      <c r="Y139" s="6"/>
+      <c r="Z139" s="6"/>
+      <c r="AA139" s="6"/>
+      <c r="AB139" s="6"/>
+      <c r="AC139" s="6"/>
+      <c r="AD139" s="6"/>
+      <c r="AE139" s="6"/>
+      <c r="AF139" s="6"/>
+      <c r="AG139" s="6"/>
+      <c r="AH139" s="6"/>
+      <c r="AI139" s="6"/>
+      <c r="AJ139" s="6"/>
+      <c r="AK139" s="7"/>
+    </row>
+    <row r="140" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="6"/>
+      <c r="T140" s="6"/>
+      <c r="U140" s="6"/>
+      <c r="V140" s="6"/>
+      <c r="W140" s="6"/>
+      <c r="X140" s="6"/>
+      <c r="Y140" s="6"/>
+      <c r="Z140" s="6"/>
+      <c r="AA140" s="6"/>
+      <c r="AB140" s="6"/>
+      <c r="AC140" s="6"/>
+      <c r="AD140" s="6"/>
+      <c r="AE140" s="6"/>
+      <c r="AF140" s="6"/>
+      <c r="AG140" s="6"/>
+      <c r="AH140" s="6"/>
+      <c r="AI140" s="6"/>
+      <c r="AJ140" s="6"/>
+      <c r="AK140" s="7"/>
+    </row>
+    <row r="141" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="6"/>
+      <c r="T141" s="6"/>
+      <c r="U141" s="6"/>
+      <c r="V141" s="6"/>
+      <c r="W141" s="6"/>
+      <c r="X141" s="6"/>
+      <c r="Y141" s="6"/>
+      <c r="Z141" s="6"/>
+      <c r="AA141" s="6"/>
+      <c r="AB141" s="6"/>
+      <c r="AC141" s="6"/>
+      <c r="AD141" s="6"/>
+      <c r="AE141" s="6"/>
+      <c r="AF141" s="6"/>
+      <c r="AG141" s="6"/>
+      <c r="AH141" s="6"/>
+      <c r="AI141" s="6"/>
+      <c r="AJ141" s="6"/>
+      <c r="AK141" s="7"/>
+    </row>
+    <row r="142" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="6"/>
+      <c r="T142" s="6"/>
+      <c r="U142" s="6"/>
+      <c r="V142" s="6"/>
+      <c r="W142" s="6"/>
+      <c r="X142" s="6"/>
+      <c r="Y142" s="6"/>
+      <c r="Z142" s="6"/>
+      <c r="AA142" s="6"/>
+      <c r="AB142" s="6"/>
+      <c r="AC142" s="6"/>
+      <c r="AD142" s="6"/>
+      <c r="AE142" s="6"/>
+      <c r="AF142" s="6"/>
+      <c r="AG142" s="6"/>
+      <c r="AH142" s="6"/>
+      <c r="AI142" s="6"/>
+      <c r="AJ142" s="6"/>
+      <c r="AK142" s="7"/>
+    </row>
+    <row r="143" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="6"/>
+      <c r="T143" s="6"/>
+      <c r="U143" s="6"/>
+      <c r="V143" s="6"/>
+      <c r="W143" s="6"/>
+      <c r="X143" s="6"/>
+      <c r="Y143" s="6"/>
+      <c r="Z143" s="6"/>
+      <c r="AA143" s="6"/>
+      <c r="AB143" s="6"/>
+      <c r="AC143" s="6"/>
+      <c r="AD143" s="6"/>
+      <c r="AE143" s="6"/>
+      <c r="AF143" s="6"/>
+      <c r="AG143" s="6"/>
+      <c r="AH143" s="6"/>
+      <c r="AI143" s="6"/>
+      <c r="AJ143" s="6"/>
+      <c r="AK143" s="7"/>
+    </row>
+    <row r="144" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="6"/>
+      <c r="T144" s="6"/>
+      <c r="U144" s="6"/>
+      <c r="V144" s="6"/>
+      <c r="W144" s="6"/>
+      <c r="X144" s="6"/>
+      <c r="Y144" s="6"/>
+      <c r="Z144" s="6"/>
+      <c r="AA144" s="6"/>
+      <c r="AB144" s="6"/>
+      <c r="AC144" s="6"/>
+      <c r="AD144" s="6"/>
+      <c r="AE144" s="6"/>
+      <c r="AF144" s="6"/>
+      <c r="AG144" s="6"/>
+      <c r="AH144" s="6"/>
+      <c r="AI144" s="6"/>
+      <c r="AJ144" s="6"/>
+      <c r="AK144" s="7"/>
+    </row>
+    <row r="145" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="6"/>
+      <c r="T145" s="6"/>
+      <c r="U145" s="6"/>
+      <c r="V145" s="6"/>
+      <c r="W145" s="6"/>
+      <c r="X145" s="6"/>
+      <c r="Y145" s="6"/>
+      <c r="Z145" s="6"/>
+      <c r="AA145" s="6"/>
+      <c r="AB145" s="6"/>
+      <c r="AC145" s="6"/>
+      <c r="AD145" s="6"/>
+      <c r="AE145" s="6"/>
+      <c r="AF145" s="6"/>
+      <c r="AG145" s="6"/>
+      <c r="AH145" s="6"/>
+      <c r="AI145" s="6"/>
+      <c r="AJ145" s="6"/>
+      <c r="AK145" s="7"/>
+    </row>
+    <row r="146" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+      <c r="U146" s="6"/>
+      <c r="V146" s="6"/>
+      <c r="W146" s="6"/>
+      <c r="X146" s="6"/>
+      <c r="Y146" s="6"/>
+      <c r="Z146" s="6"/>
+      <c r="AA146" s="6"/>
+      <c r="AB146" s="6"/>
+      <c r="AC146" s="6"/>
+      <c r="AD146" s="6"/>
+      <c r="AE146" s="6"/>
+      <c r="AF146" s="6"/>
+      <c r="AG146" s="6"/>
+      <c r="AH146" s="6"/>
+      <c r="AI146" s="6"/>
+      <c r="AJ146" s="6"/>
+      <c r="AK146" s="7"/>
+    </row>
+    <row r="147" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="6"/>
+      <c r="T147" s="6"/>
+      <c r="U147" s="6"/>
+      <c r="V147" s="6"/>
+      <c r="W147" s="6"/>
+      <c r="X147" s="6"/>
+      <c r="Y147" s="6"/>
+      <c r="Z147" s="6"/>
+      <c r="AA147" s="6"/>
+      <c r="AB147" s="6"/>
+      <c r="AC147" s="6"/>
+      <c r="AD147" s="6"/>
+      <c r="AE147" s="6"/>
+      <c r="AF147" s="6"/>
+      <c r="AG147" s="6"/>
+      <c r="AH147" s="6"/>
+      <c r="AI147" s="6"/>
+      <c r="AJ147" s="6"/>
+      <c r="AK147" s="7"/>
+    </row>
+    <row r="148" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+      <c r="U148" s="6"/>
+      <c r="V148" s="6"/>
+      <c r="W148" s="6"/>
+      <c r="X148" s="6"/>
+      <c r="Y148" s="6"/>
+      <c r="Z148" s="6"/>
+      <c r="AA148" s="6"/>
+      <c r="AB148" s="6"/>
+      <c r="AC148" s="6"/>
+      <c r="AD148" s="6"/>
+      <c r="AE148" s="6"/>
+      <c r="AF148" s="6"/>
+      <c r="AG148" s="6"/>
+      <c r="AH148" s="6"/>
+      <c r="AI148" s="6"/>
+      <c r="AJ148" s="6"/>
+      <c r="AK148" s="7"/>
+    </row>
+    <row r="149" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="6"/>
+      <c r="T149" s="6"/>
+      <c r="U149" s="6"/>
+      <c r="V149" s="6"/>
+      <c r="W149" s="6"/>
+      <c r="X149" s="6"/>
+      <c r="Y149" s="6"/>
+      <c r="Z149" s="6"/>
+      <c r="AA149" s="6"/>
+      <c r="AB149" s="6"/>
+      <c r="AC149" s="6"/>
+      <c r="AD149" s="6"/>
+      <c r="AE149" s="6"/>
+      <c r="AF149" s="6"/>
+      <c r="AG149" s="6"/>
+      <c r="AH149" s="6"/>
+      <c r="AI149" s="6"/>
+      <c r="AJ149" s="6"/>
+      <c r="AK149" s="7"/>
+    </row>
+    <row r="150" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="6"/>
+      <c r="T150" s="6"/>
+      <c r="U150" s="6"/>
+      <c r="V150" s="6"/>
+      <c r="W150" s="6"/>
+      <c r="X150" s="6"/>
+      <c r="Y150" s="6"/>
+      <c r="Z150" s="6"/>
+      <c r="AA150" s="6"/>
+      <c r="AB150" s="6"/>
+      <c r="AC150" s="6"/>
+      <c r="AD150" s="6"/>
+      <c r="AE150" s="6"/>
+      <c r="AF150" s="6"/>
+      <c r="AG150" s="6"/>
+      <c r="AH150" s="6"/>
+      <c r="AI150" s="6"/>
+      <c r="AJ150" s="6"/>
+      <c r="AK150" s="7"/>
+    </row>
+    <row r="151" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="6"/>
+      <c r="T151" s="6"/>
+      <c r="U151" s="6"/>
+      <c r="V151" s="6"/>
+      <c r="W151" s="6"/>
+      <c r="X151" s="6"/>
+      <c r="Y151" s="6"/>
+      <c r="Z151" s="6"/>
+      <c r="AA151" s="6"/>
+      <c r="AB151" s="6"/>
+      <c r="AC151" s="6"/>
+      <c r="AD151" s="6"/>
+      <c r="AE151" s="6"/>
+      <c r="AF151" s="6"/>
+      <c r="AG151" s="6"/>
+      <c r="AH151" s="6"/>
+      <c r="AI151" s="6"/>
+      <c r="AJ151" s="6"/>
+      <c r="AK151" s="7"/>
+    </row>
+    <row r="152" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="6"/>
+      <c r="T152" s="6"/>
+      <c r="U152" s="6"/>
+      <c r="V152" s="6"/>
+      <c r="W152" s="6"/>
+      <c r="X152" s="6"/>
+      <c r="Y152" s="6"/>
+      <c r="Z152" s="6"/>
+      <c r="AA152" s="6"/>
+      <c r="AB152" s="6"/>
+      <c r="AC152" s="6"/>
+      <c r="AD152" s="6"/>
+      <c r="AE152" s="6"/>
+      <c r="AF152" s="6"/>
+      <c r="AG152" s="6"/>
+      <c r="AH152" s="6"/>
+      <c r="AI152" s="6"/>
+      <c r="AJ152" s="6"/>
+      <c r="AK152" s="7"/>
+    </row>
+    <row r="153" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="6"/>
+      <c r="T153" s="6"/>
+      <c r="U153" s="6"/>
+      <c r="V153" s="6"/>
+      <c r="W153" s="6"/>
+      <c r="X153" s="6"/>
+      <c r="Y153" s="6"/>
+      <c r="Z153" s="6"/>
+      <c r="AA153" s="6"/>
+      <c r="AB153" s="6"/>
+      <c r="AC153" s="6"/>
+      <c r="AD153" s="6"/>
+      <c r="AE153" s="6"/>
+      <c r="AF153" s="6"/>
+      <c r="AG153" s="6"/>
+      <c r="AH153" s="6"/>
+      <c r="AI153" s="6"/>
+      <c r="AJ153" s="6"/>
+      <c r="AK153" s="7"/>
+    </row>
+    <row r="154" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="6"/>
+      <c r="T154" s="6"/>
+      <c r="U154" s="6"/>
+      <c r="V154" s="6"/>
+      <c r="W154" s="6"/>
+      <c r="X154" s="6"/>
+      <c r="Y154" s="6"/>
+      <c r="Z154" s="6"/>
+      <c r="AA154" s="6"/>
+      <c r="AB154" s="6"/>
+      <c r="AC154" s="6"/>
+      <c r="AD154" s="6"/>
+      <c r="AE154" s="6"/>
+      <c r="AF154" s="6"/>
+      <c r="AG154" s="6"/>
+      <c r="AH154" s="6"/>
+      <c r="AI154" s="6"/>
+      <c r="AJ154" s="6"/>
+      <c r="AK154" s="7"/>
+    </row>
+    <row r="155" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+      <c r="U155" s="6"/>
+      <c r="V155" s="6"/>
+      <c r="W155" s="6"/>
+      <c r="X155" s="6"/>
+      <c r="Y155" s="6"/>
+      <c r="Z155" s="6"/>
+      <c r="AA155" s="6"/>
+      <c r="AB155" s="6"/>
+      <c r="AC155" s="6"/>
+      <c r="AD155" s="6"/>
+      <c r="AE155" s="6"/>
+      <c r="AF155" s="6"/>
+      <c r="AG155" s="6"/>
+      <c r="AH155" s="6"/>
+      <c r="AI155" s="6"/>
+      <c r="AJ155" s="6"/>
+      <c r="AK155" s="7"/>
+    </row>
+    <row r="156" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+      <c r="U156" s="6"/>
+      <c r="V156" s="6"/>
+      <c r="W156" s="6"/>
+      <c r="X156" s="6"/>
+      <c r="Y156" s="6"/>
+      <c r="Z156" s="6"/>
+      <c r="AA156" s="6"/>
+      <c r="AB156" s="6"/>
+      <c r="AC156" s="6"/>
+      <c r="AD156" s="6"/>
+      <c r="AE156" s="6"/>
+      <c r="AF156" s="6"/>
+      <c r="AG156" s="6"/>
+      <c r="AH156" s="6"/>
+      <c r="AI156" s="6"/>
+      <c r="AJ156" s="6"/>
+      <c r="AK156" s="7"/>
+    </row>
+    <row r="157" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+      <c r="U157" s="6"/>
+      <c r="V157" s="6"/>
+      <c r="W157" s="6"/>
+      <c r="X157" s="6"/>
+      <c r="Y157" s="6"/>
+      <c r="Z157" s="6"/>
+      <c r="AA157" s="6"/>
+      <c r="AB157" s="6"/>
+      <c r="AC157" s="6"/>
+      <c r="AD157" s="6"/>
+      <c r="AE157" s="6"/>
+      <c r="AF157" s="6"/>
+      <c r="AG157" s="6"/>
+      <c r="AH157" s="6"/>
+      <c r="AI157" s="6"/>
+      <c r="AJ157" s="6"/>
+      <c r="AK157" s="7"/>
+    </row>
+    <row r="158" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+      <c r="U158" s="6"/>
+      <c r="V158" s="6"/>
+      <c r="W158" s="6"/>
+      <c r="X158" s="6"/>
+      <c r="Y158" s="6"/>
+      <c r="Z158" s="6"/>
+      <c r="AA158" s="6"/>
+      <c r="AB158" s="6"/>
+      <c r="AC158" s="6"/>
+      <c r="AD158" s="6"/>
+      <c r="AE158" s="6"/>
+      <c r="AF158" s="6"/>
+      <c r="AG158" s="6"/>
+      <c r="AH158" s="6"/>
+      <c r="AI158" s="6"/>
+      <c r="AJ158" s="6"/>
+      <c r="AK158" s="7"/>
+    </row>
+    <row r="159" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6"/>
+      <c r="T159" s="6"/>
+      <c r="U159" s="6"/>
+      <c r="V159" s="6"/>
+      <c r="W159" s="6"/>
+      <c r="X159" s="6"/>
+      <c r="Y159" s="6"/>
+      <c r="Z159" s="6"/>
+      <c r="AA159" s="6"/>
+      <c r="AB159" s="6"/>
+      <c r="AC159" s="6"/>
+      <c r="AD159" s="6"/>
+      <c r="AE159" s="6"/>
+      <c r="AF159" s="6"/>
+      <c r="AG159" s="6"/>
+      <c r="AH159" s="6"/>
+      <c r="AI159" s="6"/>
+      <c r="AJ159" s="6"/>
+      <c r="AK159" s="7"/>
+    </row>
+    <row r="160" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6"/>
+      <c r="V160" s="6"/>
+      <c r="W160" s="6"/>
+      <c r="X160" s="6"/>
+      <c r="Y160" s="6"/>
+      <c r="Z160" s="6"/>
+      <c r="AA160" s="6"/>
+      <c r="AB160" s="6"/>
+      <c r="AC160" s="6"/>
+      <c r="AD160" s="6"/>
+      <c r="AE160" s="6"/>
+      <c r="AF160" s="6"/>
+      <c r="AG160" s="6"/>
+      <c r="AH160" s="6"/>
+      <c r="AI160" s="6"/>
+      <c r="AJ160" s="6"/>
+      <c r="AK160" s="7"/>
+    </row>
+    <row r="161" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="6"/>
+      <c r="T161" s="6"/>
+      <c r="U161" s="6"/>
+      <c r="V161" s="6"/>
+      <c r="W161" s="6"/>
+      <c r="X161" s="6"/>
+      <c r="Y161" s="6"/>
+      <c r="Z161" s="6"/>
+      <c r="AA161" s="6"/>
+      <c r="AB161" s="6"/>
+      <c r="AC161" s="6"/>
+      <c r="AD161" s="6"/>
+      <c r="AE161" s="6"/>
+      <c r="AF161" s="6"/>
+      <c r="AG161" s="6"/>
+      <c r="AH161" s="6"/>
+      <c r="AI161" s="6"/>
+      <c r="AJ161" s="6"/>
+      <c r="AK161" s="7"/>
+    </row>
+    <row r="162" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="6"/>
+      <c r="T162" s="6"/>
+      <c r="U162" s="6"/>
+      <c r="V162" s="6"/>
+      <c r="W162" s="6"/>
+      <c r="X162" s="6"/>
+      <c r="Y162" s="6"/>
+      <c r="Z162" s="6"/>
+      <c r="AA162" s="6"/>
+      <c r="AB162" s="6"/>
+      <c r="AC162" s="6"/>
+      <c r="AD162" s="6"/>
+      <c r="AE162" s="6"/>
+      <c r="AF162" s="6"/>
+      <c r="AG162" s="6"/>
+      <c r="AH162" s="6"/>
+      <c r="AI162" s="6"/>
+      <c r="AJ162" s="6"/>
+      <c r="AK162" s="7"/>
+    </row>
+    <row r="163" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="6"/>
+      <c r="T163" s="6"/>
+      <c r="U163" s="6"/>
+      <c r="V163" s="6"/>
+      <c r="W163" s="6"/>
+      <c r="X163" s="6"/>
+      <c r="Y163" s="6"/>
+      <c r="Z163" s="6"/>
+      <c r="AA163" s="6"/>
+      <c r="AB163" s="6"/>
+      <c r="AC163" s="6"/>
+      <c r="AD163" s="6"/>
+      <c r="AE163" s="6"/>
+      <c r="AF163" s="6"/>
+      <c r="AG163" s="6"/>
+      <c r="AH163" s="6"/>
+      <c r="AI163" s="6"/>
+      <c r="AJ163" s="6"/>
+      <c r="AK163" s="7"/>
+    </row>
+    <row r="164" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="6"/>
+      <c r="T164" s="6"/>
+      <c r="U164" s="6"/>
+      <c r="V164" s="6"/>
+      <c r="W164" s="6"/>
+      <c r="X164" s="6"/>
+      <c r="Y164" s="6"/>
+      <c r="Z164" s="6"/>
+      <c r="AA164" s="6"/>
+      <c r="AB164" s="6"/>
+      <c r="AC164" s="6"/>
+      <c r="AD164" s="6"/>
+      <c r="AE164" s="6"/>
+      <c r="AF164" s="6"/>
+      <c r="AG164" s="6"/>
+      <c r="AH164" s="6"/>
+      <c r="AI164" s="6"/>
+      <c r="AJ164" s="6"/>
+      <c r="AK164" s="7"/>
+    </row>
+    <row r="165" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="6"/>
+      <c r="T165" s="6"/>
+      <c r="U165" s="6"/>
+      <c r="V165" s="6"/>
+      <c r="W165" s="6"/>
+      <c r="X165" s="6"/>
+      <c r="Y165" s="6"/>
+      <c r="Z165" s="6"/>
+      <c r="AA165" s="6"/>
+      <c r="AB165" s="6"/>
+      <c r="AC165" s="6"/>
+      <c r="AD165" s="6"/>
+      <c r="AE165" s="6"/>
+      <c r="AF165" s="6"/>
+      <c r="AG165" s="6"/>
+      <c r="AH165" s="6"/>
+      <c r="AI165" s="6"/>
+      <c r="AJ165" s="6"/>
+      <c r="AK165" s="7"/>
+    </row>
+    <row r="166" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="6"/>
+      <c r="T166" s="6"/>
+      <c r="U166" s="6"/>
+      <c r="V166" s="6"/>
+      <c r="W166" s="6"/>
+      <c r="X166" s="6"/>
+      <c r="Y166" s="6"/>
+      <c r="Z166" s="6"/>
+      <c r="AA166" s="6"/>
+      <c r="AB166" s="6"/>
+      <c r="AC166" s="6"/>
+      <c r="AD166" s="6"/>
+      <c r="AE166" s="6"/>
+      <c r="AF166" s="6"/>
+      <c r="AG166" s="6"/>
+      <c r="AH166" s="6"/>
+      <c r="AI166" s="6"/>
+      <c r="AJ166" s="6"/>
+      <c r="AK166" s="7"/>
+    </row>
+    <row r="167" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="6"/>
+      <c r="T167" s="6"/>
+      <c r="U167" s="6"/>
+      <c r="V167" s="6"/>
+      <c r="W167" s="6"/>
+      <c r="X167" s="6"/>
+      <c r="Y167" s="6"/>
+      <c r="Z167" s="6"/>
+      <c r="AA167" s="6"/>
+      <c r="AB167" s="6"/>
+      <c r="AC167" s="6"/>
+      <c r="AD167" s="6"/>
+      <c r="AE167" s="6"/>
+      <c r="AF167" s="6"/>
+      <c r="AG167" s="6"/>
+      <c r="AH167" s="6"/>
+      <c r="AI167" s="6"/>
+      <c r="AJ167" s="6"/>
+      <c r="AK167" s="7"/>
+    </row>
+    <row r="168" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="6"/>
+      <c r="T168" s="6"/>
+      <c r="U168" s="6"/>
+      <c r="V168" s="6"/>
+      <c r="W168" s="6"/>
+      <c r="X168" s="6"/>
+      <c r="Y168" s="6"/>
+      <c r="Z168" s="6"/>
+      <c r="AA168" s="6"/>
+      <c r="AB168" s="6"/>
+      <c r="AC168" s="6"/>
+      <c r="AD168" s="6"/>
+      <c r="AE168" s="6"/>
+      <c r="AF168" s="6"/>
+      <c r="AG168" s="6"/>
+      <c r="AH168" s="6"/>
+      <c r="AI168" s="6"/>
+      <c r="AJ168" s="6"/>
+      <c r="AK168" s="7"/>
+    </row>
+    <row r="169" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="6"/>
+      <c r="T169" s="6"/>
+      <c r="U169" s="6"/>
+      <c r="V169" s="6"/>
+      <c r="W169" s="6"/>
+      <c r="X169" s="6"/>
+      <c r="Y169" s="6"/>
+      <c r="Z169" s="6"/>
+      <c r="AA169" s="6"/>
+      <c r="AB169" s="6"/>
+      <c r="AC169" s="6"/>
+      <c r="AD169" s="6"/>
+      <c r="AE169" s="6"/>
+      <c r="AF169" s="6"/>
+      <c r="AG169" s="6"/>
+      <c r="AH169" s="6"/>
+      <c r="AI169" s="6"/>
+      <c r="AJ169" s="6"/>
+      <c r="AK169" s="7"/>
+    </row>
+    <row r="170" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
+      <c r="M170" s="6"/>
+      <c r="N170" s="6"/>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="6"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="6"/>
+      <c r="T170" s="6"/>
+      <c r="U170" s="6"/>
+      <c r="V170" s="6"/>
+      <c r="W170" s="6"/>
+      <c r="X170" s="6"/>
+      <c r="Y170" s="6"/>
+      <c r="Z170" s="6"/>
+      <c r="AA170" s="6"/>
+      <c r="AB170" s="6"/>
+      <c r="AC170" s="6"/>
+      <c r="AD170" s="6"/>
+      <c r="AE170" s="6"/>
+      <c r="AF170" s="6"/>
+      <c r="AG170" s="6"/>
+      <c r="AH170" s="6"/>
+      <c r="AI170" s="6"/>
+      <c r="AJ170" s="6"/>
+      <c r="AK170" s="7"/>
+    </row>
+    <row r="171" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C171" s="5"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6"/>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="6"/>
+      <c r="T171" s="6"/>
+      <c r="U171" s="6"/>
+      <c r="V171" s="6"/>
+      <c r="W171" s="6"/>
+      <c r="X171" s="6"/>
+      <c r="Y171" s="6"/>
+      <c r="Z171" s="6"/>
+      <c r="AA171" s="6"/>
+      <c r="AB171" s="6"/>
+      <c r="AC171" s="6"/>
+      <c r="AD171" s="6"/>
+      <c r="AE171" s="6"/>
+      <c r="AF171" s="6"/>
+      <c r="AG171" s="6"/>
+      <c r="AH171" s="6"/>
+      <c r="AI171" s="6"/>
+      <c r="AJ171" s="6"/>
+      <c r="AK171" s="7"/>
+    </row>
+    <row r="172" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C172" s="5"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="6"/>
+      <c r="T172" s="6"/>
+      <c r="U172" s="6"/>
+      <c r="V172" s="6"/>
+      <c r="W172" s="6"/>
+      <c r="X172" s="6"/>
+      <c r="Y172" s="6"/>
+      <c r="Z172" s="6"/>
+      <c r="AA172" s="6"/>
+      <c r="AB172" s="6"/>
+      <c r="AC172" s="6"/>
+      <c r="AD172" s="6"/>
+      <c r="AE172" s="6"/>
+      <c r="AF172" s="6"/>
+      <c r="AG172" s="6"/>
+      <c r="AH172" s="6"/>
+      <c r="AI172" s="6"/>
+      <c r="AJ172" s="6"/>
+      <c r="AK172" s="7"/>
+    </row>
+    <row r="173" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C173" s="5"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="6"/>
+      <c r="T173" s="6"/>
+      <c r="U173" s="6"/>
+      <c r="V173" s="6"/>
+      <c r="W173" s="6"/>
+      <c r="X173" s="6"/>
+      <c r="Y173" s="6"/>
+      <c r="Z173" s="6"/>
+      <c r="AA173" s="6"/>
+      <c r="AB173" s="6"/>
+      <c r="AC173" s="6"/>
+      <c r="AD173" s="6"/>
+      <c r="AE173" s="6"/>
+      <c r="AF173" s="6"/>
+      <c r="AG173" s="6"/>
+      <c r="AH173" s="6"/>
+      <c r="AI173" s="6"/>
+      <c r="AJ173" s="6"/>
+      <c r="AK173" s="7"/>
+    </row>
+    <row r="174" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="6"/>
+      <c r="T174" s="6"/>
+      <c r="U174" s="6"/>
+      <c r="V174" s="6"/>
+      <c r="W174" s="6"/>
+      <c r="X174" s="6"/>
+      <c r="Y174" s="6"/>
+      <c r="Z174" s="6"/>
+      <c r="AA174" s="6"/>
+      <c r="AB174" s="6"/>
+      <c r="AC174" s="6"/>
+      <c r="AD174" s="6"/>
+      <c r="AE174" s="6"/>
+      <c r="AF174" s="6"/>
+      <c r="AG174" s="6"/>
+      <c r="AH174" s="6"/>
+      <c r="AI174" s="6"/>
+      <c r="AJ174" s="6"/>
+      <c r="AK174" s="7"/>
+    </row>
+    <row r="175" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+      <c r="M175" s="6"/>
+      <c r="N175" s="6"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="6"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="6"/>
+      <c r="T175" s="6"/>
+      <c r="U175" s="6"/>
+      <c r="V175" s="6"/>
+      <c r="W175" s="6"/>
+      <c r="X175" s="6"/>
+      <c r="Y175" s="6"/>
+      <c r="Z175" s="6"/>
+      <c r="AA175" s="6"/>
+      <c r="AB175" s="6"/>
+      <c r="AC175" s="6"/>
+      <c r="AD175" s="6"/>
+      <c r="AE175" s="6"/>
+      <c r="AF175" s="6"/>
+      <c r="AG175" s="6"/>
+      <c r="AH175" s="6"/>
+      <c r="AI175" s="6"/>
+      <c r="AJ175" s="6"/>
+      <c r="AK175" s="7"/>
+    </row>
+    <row r="176" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="6"/>
+      <c r="T176" s="6"/>
+      <c r="U176" s="6"/>
+      <c r="V176" s="6"/>
+      <c r="W176" s="6"/>
+      <c r="X176" s="6"/>
+      <c r="Y176" s="6"/>
+      <c r="Z176" s="6"/>
+      <c r="AA176" s="6"/>
+      <c r="AB176" s="6"/>
+      <c r="AC176" s="6"/>
+      <c r="AD176" s="6"/>
+      <c r="AE176" s="6"/>
+      <c r="AF176" s="6"/>
+      <c r="AG176" s="6"/>
+      <c r="AH176" s="6"/>
+      <c r="AI176" s="6"/>
+      <c r="AJ176" s="6"/>
+      <c r="AK176" s="7"/>
+    </row>
+    <row r="177" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="6"/>
+      <c r="T177" s="6"/>
+      <c r="U177" s="6"/>
+      <c r="V177" s="6"/>
+      <c r="W177" s="6"/>
+      <c r="X177" s="6"/>
+      <c r="Y177" s="6"/>
+      <c r="Z177" s="6"/>
+      <c r="AA177" s="6"/>
+      <c r="AB177" s="6"/>
+      <c r="AC177" s="6"/>
+      <c r="AD177" s="6"/>
+      <c r="AE177" s="6"/>
+      <c r="AF177" s="6"/>
+      <c r="AG177" s="6"/>
+      <c r="AH177" s="6"/>
+      <c r="AI177" s="6"/>
+      <c r="AJ177" s="6"/>
+      <c r="AK177" s="7"/>
+    </row>
+    <row r="178" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+      <c r="M178" s="6"/>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="6"/>
+      <c r="T178" s="6"/>
+      <c r="U178" s="6"/>
+      <c r="V178" s="6"/>
+      <c r="W178" s="6"/>
+      <c r="X178" s="6"/>
+      <c r="Y178" s="6"/>
+      <c r="Z178" s="6"/>
+      <c r="AA178" s="6"/>
+      <c r="AB178" s="6"/>
+      <c r="AC178" s="6"/>
+      <c r="AD178" s="6"/>
+      <c r="AE178" s="6"/>
+      <c r="AF178" s="6"/>
+      <c r="AG178" s="6"/>
+      <c r="AH178" s="6"/>
+      <c r="AI178" s="6"/>
+      <c r="AJ178" s="6"/>
+      <c r="AK178" s="7"/>
+    </row>
+    <row r="179" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="6"/>
+      <c r="T179" s="6"/>
+      <c r="U179" s="6"/>
+      <c r="V179" s="6"/>
+      <c r="W179" s="6"/>
+      <c r="X179" s="6"/>
+      <c r="Y179" s="6"/>
+      <c r="Z179" s="6"/>
+      <c r="AA179" s="6"/>
+      <c r="AB179" s="6"/>
+      <c r="AC179" s="6"/>
+      <c r="AD179" s="6"/>
+      <c r="AE179" s="6"/>
+      <c r="AF179" s="6"/>
+      <c r="AG179" s="6"/>
+      <c r="AH179" s="6"/>
+      <c r="AI179" s="6"/>
+      <c r="AJ179" s="6"/>
+      <c r="AK179" s="7"/>
+    </row>
+    <row r="180" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="6"/>
+      <c r="T180" s="6"/>
+      <c r="U180" s="6"/>
+      <c r="V180" s="6"/>
+      <c r="W180" s="6"/>
+      <c r="X180" s="6"/>
+      <c r="Y180" s="6"/>
+      <c r="Z180" s="6"/>
+      <c r="AA180" s="6"/>
+      <c r="AB180" s="6"/>
+      <c r="AC180" s="6"/>
+      <c r="AD180" s="6"/>
+      <c r="AE180" s="6"/>
+      <c r="AF180" s="6"/>
+      <c r="AG180" s="6"/>
+      <c r="AH180" s="6"/>
+      <c r="AI180" s="6"/>
+      <c r="AJ180" s="6"/>
+      <c r="AK180" s="7"/>
+    </row>
+    <row r="181" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C181" s="5"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="6"/>
+      <c r="T181" s="6"/>
+      <c r="U181" s="6"/>
+      <c r="V181" s="6"/>
+      <c r="W181" s="6"/>
+      <c r="X181" s="6"/>
+      <c r="Y181" s="6"/>
+      <c r="Z181" s="6"/>
+      <c r="AA181" s="6"/>
+      <c r="AB181" s="6"/>
+      <c r="AC181" s="6"/>
+      <c r="AD181" s="6"/>
+      <c r="AE181" s="6"/>
+      <c r="AF181" s="6"/>
+      <c r="AG181" s="6"/>
+      <c r="AH181" s="6"/>
+      <c r="AI181" s="6"/>
+      <c r="AJ181" s="6"/>
+      <c r="AK181" s="7"/>
+    </row>
+    <row r="182" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C182" s="5"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+      <c r="M182" s="6"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" s="6"/>
+      <c r="R182" s="6"/>
+      <c r="S182" s="6"/>
+      <c r="T182" s="6"/>
+      <c r="U182" s="6"/>
+      <c r="V182" s="6"/>
+      <c r="W182" s="6"/>
+      <c r="X182" s="6"/>
+      <c r="Y182" s="6"/>
+      <c r="Z182" s="6"/>
+      <c r="AA182" s="6"/>
+      <c r="AB182" s="6"/>
+      <c r="AC182" s="6"/>
+      <c r="AD182" s="6"/>
+      <c r="AE182" s="6"/>
+      <c r="AF182" s="6"/>
+      <c r="AG182" s="6"/>
+      <c r="AH182" s="6"/>
+      <c r="AI182" s="6"/>
+      <c r="AJ182" s="6"/>
+      <c r="AK182" s="7"/>
+    </row>
+    <row r="183" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C183" s="5"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+      <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="6"/>
+      <c r="R183" s="6"/>
+      <c r="S183" s="6"/>
+      <c r="T183" s="6"/>
+      <c r="U183" s="6"/>
+      <c r="V183" s="6"/>
+      <c r="W183" s="6"/>
+      <c r="X183" s="6"/>
+      <c r="Y183" s="6"/>
+      <c r="Z183" s="6"/>
+      <c r="AA183" s="6"/>
+      <c r="AB183" s="6"/>
+      <c r="AC183" s="6"/>
+      <c r="AD183" s="6"/>
+      <c r="AE183" s="6"/>
+      <c r="AF183" s="6"/>
+      <c r="AG183" s="6"/>
+      <c r="AH183" s="6"/>
+      <c r="AI183" s="6"/>
+      <c r="AJ183" s="6"/>
+      <c r="AK183" s="7"/>
+    </row>
+    <row r="184" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C184" s="5"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="6"/>
+      <c r="T184" s="6"/>
+      <c r="U184" s="6"/>
+      <c r="V184" s="6"/>
+      <c r="W184" s="6"/>
+      <c r="X184" s="6"/>
+      <c r="Y184" s="6"/>
+      <c r="Z184" s="6"/>
+      <c r="AA184" s="6"/>
+      <c r="AB184" s="6"/>
+      <c r="AC184" s="6"/>
+      <c r="AD184" s="6"/>
+      <c r="AE184" s="6"/>
+      <c r="AF184" s="6"/>
+      <c r="AG184" s="6"/>
+      <c r="AH184" s="6"/>
+      <c r="AI184" s="6"/>
+      <c r="AJ184" s="6"/>
+      <c r="AK184" s="7"/>
+    </row>
+    <row r="185" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C185" s="5"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="6"/>
+      <c r="T185" s="6"/>
+      <c r="U185" s="6"/>
+      <c r="V185" s="6"/>
+      <c r="W185" s="6"/>
+      <c r="X185" s="6"/>
+      <c r="Y185" s="6"/>
+      <c r="Z185" s="6"/>
+      <c r="AA185" s="6"/>
+      <c r="AB185" s="6"/>
+      <c r="AC185" s="6"/>
+      <c r="AD185" s="6"/>
+      <c r="AE185" s="6"/>
+      <c r="AF185" s="6"/>
+      <c r="AG185" s="6"/>
+      <c r="AH185" s="6"/>
+      <c r="AI185" s="6"/>
+      <c r="AJ185" s="6"/>
+      <c r="AK185" s="7"/>
+    </row>
+    <row r="186" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C186" s="5"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="6"/>
+      <c r="T186" s="6"/>
+      <c r="U186" s="6"/>
+      <c r="V186" s="6"/>
+      <c r="W186" s="6"/>
+      <c r="X186" s="6"/>
+      <c r="Y186" s="6"/>
+      <c r="Z186" s="6"/>
+      <c r="AA186" s="6"/>
+      <c r="AB186" s="6"/>
+      <c r="AC186" s="6"/>
+      <c r="AD186" s="6"/>
+      <c r="AE186" s="6"/>
+      <c r="AF186" s="6"/>
+      <c r="AG186" s="6"/>
+      <c r="AH186" s="6"/>
+      <c r="AI186" s="6"/>
+      <c r="AJ186" s="6"/>
+      <c r="AK186" s="7"/>
+    </row>
+    <row r="187" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C187" s="5"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+      <c r="M187" s="6"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
+      <c r="R187" s="6"/>
+      <c r="S187" s="6"/>
+      <c r="T187" s="6"/>
+      <c r="U187" s="6"/>
+      <c r="V187" s="6"/>
+      <c r="W187" s="6"/>
+      <c r="X187" s="6"/>
+      <c r="Y187" s="6"/>
+      <c r="Z187" s="6"/>
+      <c r="AA187" s="6"/>
+      <c r="AB187" s="6"/>
+      <c r="AC187" s="6"/>
+      <c r="AD187" s="6"/>
+      <c r="AE187" s="6"/>
+      <c r="AF187" s="6"/>
+      <c r="AG187" s="6"/>
+      <c r="AH187" s="6"/>
+      <c r="AI187" s="6"/>
+      <c r="AJ187" s="6"/>
+      <c r="AK187" s="7"/>
+    </row>
+    <row r="188" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C188" s="5"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="6"/>
+      <c r="T188" s="6"/>
+      <c r="U188" s="6"/>
+      <c r="V188" s="6"/>
+      <c r="W188" s="6"/>
+      <c r="X188" s="6"/>
+      <c r="Y188" s="6"/>
+      <c r="Z188" s="6"/>
+      <c r="AA188" s="6"/>
+      <c r="AB188" s="6"/>
+      <c r="AC188" s="6"/>
+      <c r="AD188" s="6"/>
+      <c r="AE188" s="6"/>
+      <c r="AF188" s="6"/>
+      <c r="AG188" s="6"/>
+      <c r="AH188" s="6"/>
+      <c r="AI188" s="6"/>
+      <c r="AJ188" s="6"/>
+      <c r="AK188" s="7"/>
+    </row>
+    <row r="189" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C189" s="5"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+      <c r="L189" s="6"/>
+      <c r="M189" s="6"/>
+      <c r="N189" s="6"/>
+      <c r="O189" s="6"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
+      <c r="R189" s="6"/>
+      <c r="S189" s="6"/>
+      <c r="T189" s="6"/>
+      <c r="U189" s="6"/>
+      <c r="V189" s="6"/>
+      <c r="W189" s="6"/>
+      <c r="X189" s="6"/>
+      <c r="Y189" s="6"/>
+      <c r="Z189" s="6"/>
+      <c r="AA189" s="6"/>
+      <c r="AB189" s="6"/>
+      <c r="AC189" s="6"/>
+      <c r="AD189" s="6"/>
+      <c r="AE189" s="6"/>
+      <c r="AF189" s="6"/>
+      <c r="AG189" s="6"/>
+      <c r="AH189" s="6"/>
+      <c r="AI189" s="6"/>
+      <c r="AJ189" s="6"/>
+      <c r="AK189" s="7"/>
+    </row>
+    <row r="190" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C190" s="5"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="6"/>
+      <c r="L190" s="6"/>
+      <c r="M190" s="6"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="6"/>
+      <c r="P190" s="6"/>
+      <c r="Q190" s="6"/>
+      <c r="R190" s="6"/>
+      <c r="S190" s="6"/>
+      <c r="T190" s="6"/>
+      <c r="U190" s="6"/>
+      <c r="V190" s="6"/>
+      <c r="W190" s="6"/>
+      <c r="X190" s="6"/>
+      <c r="Y190" s="6"/>
+      <c r="Z190" s="6"/>
+      <c r="AA190" s="6"/>
+      <c r="AB190" s="6"/>
+      <c r="AC190" s="6"/>
+      <c r="AD190" s="6"/>
+      <c r="AE190" s="6"/>
+      <c r="AF190" s="6"/>
+      <c r="AG190" s="6"/>
+      <c r="AH190" s="6"/>
+      <c r="AI190" s="6"/>
+      <c r="AJ190" s="6"/>
+      <c r="AK190" s="7"/>
+    </row>
+    <row r="191" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C191" s="5"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+      <c r="R191" s="6"/>
+      <c r="S191" s="6"/>
+      <c r="T191" s="6"/>
+      <c r="U191" s="6"/>
+      <c r="V191" s="6"/>
+      <c r="W191" s="6"/>
+      <c r="X191" s="6"/>
+      <c r="Y191" s="6"/>
+      <c r="Z191" s="6"/>
+      <c r="AA191" s="6"/>
+      <c r="AB191" s="6"/>
+      <c r="AC191" s="6"/>
+      <c r="AD191" s="6"/>
+      <c r="AE191" s="6"/>
+      <c r="AF191" s="6"/>
+      <c r="AG191" s="6"/>
+      <c r="AH191" s="6"/>
+      <c r="AI191" s="6"/>
+      <c r="AJ191" s="6"/>
+      <c r="AK191" s="7"/>
+    </row>
+    <row r="192" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C192" s="5"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+      <c r="R192" s="6"/>
+      <c r="S192" s="6"/>
+      <c r="T192" s="6"/>
+      <c r="U192" s="6"/>
+      <c r="V192" s="6"/>
+      <c r="W192" s="6"/>
+      <c r="X192" s="6"/>
+      <c r="Y192" s="6"/>
+      <c r="Z192" s="6"/>
+      <c r="AA192" s="6"/>
+      <c r="AB192" s="6"/>
+      <c r="AC192" s="6"/>
+      <c r="AD192" s="6"/>
+      <c r="AE192" s="6"/>
+      <c r="AF192" s="6"/>
+      <c r="AG192" s="6"/>
+      <c r="AH192" s="6"/>
+      <c r="AI192" s="6"/>
+      <c r="AJ192" s="6"/>
+      <c r="AK192" s="7"/>
+    </row>
+    <row r="193" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C193" s="5"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="6"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+      <c r="R193" s="6"/>
+      <c r="S193" s="6"/>
+      <c r="T193" s="6"/>
+      <c r="U193" s="6"/>
+      <c r="V193" s="6"/>
+      <c r="W193" s="6"/>
+      <c r="X193" s="6"/>
+      <c r="Y193" s="6"/>
+      <c r="Z193" s="6"/>
+      <c r="AA193" s="6"/>
+      <c r="AB193" s="6"/>
+      <c r="AC193" s="6"/>
+      <c r="AD193" s="6"/>
+      <c r="AE193" s="6"/>
+      <c r="AF193" s="6"/>
+      <c r="AG193" s="6"/>
+      <c r="AH193" s="6"/>
+      <c r="AI193" s="6"/>
+      <c r="AJ193" s="6"/>
+      <c r="AK193" s="7"/>
+    </row>
+    <row r="194" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C194" s="5"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="6"/>
+      <c r="T194" s="6"/>
+      <c r="U194" s="6"/>
+      <c r="V194" s="6"/>
+      <c r="W194" s="6"/>
+      <c r="X194" s="6"/>
+      <c r="Y194" s="6"/>
+      <c r="Z194" s="6"/>
+      <c r="AA194" s="6"/>
+      <c r="AB194" s="6"/>
+      <c r="AC194" s="6"/>
+      <c r="AD194" s="6"/>
+      <c r="AE194" s="6"/>
+      <c r="AF194" s="6"/>
+      <c r="AG194" s="6"/>
+      <c r="AH194" s="6"/>
+      <c r="AI194" s="6"/>
+      <c r="AJ194" s="6"/>
+      <c r="AK194" s="7"/>
+    </row>
+    <row r="195" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C195" s="5"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="6"/>
+      <c r="T195" s="6"/>
+      <c r="U195" s="6"/>
+      <c r="V195" s="6"/>
+      <c r="W195" s="6"/>
+      <c r="X195" s="6"/>
+      <c r="Y195" s="6"/>
+      <c r="Z195" s="6"/>
+      <c r="AA195" s="6"/>
+      <c r="AB195" s="6"/>
+      <c r="AC195" s="6"/>
+      <c r="AD195" s="6"/>
+      <c r="AE195" s="6"/>
+      <c r="AF195" s="6"/>
+      <c r="AG195" s="6"/>
+      <c r="AH195" s="6"/>
+      <c r="AI195" s="6"/>
+      <c r="AJ195" s="6"/>
+      <c r="AK195" s="7"/>
+    </row>
+    <row r="196" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C196" s="5"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="6"/>
+      <c r="T196" s="6"/>
+      <c r="U196" s="6"/>
+      <c r="V196" s="6"/>
+      <c r="W196" s="6"/>
+      <c r="X196" s="6"/>
+      <c r="Y196" s="6"/>
+      <c r="Z196" s="6"/>
+      <c r="AA196" s="6"/>
+      <c r="AB196" s="6"/>
+      <c r="AC196" s="6"/>
+      <c r="AD196" s="6"/>
+      <c r="AE196" s="6"/>
+      <c r="AF196" s="6"/>
+      <c r="AG196" s="6"/>
+      <c r="AH196" s="6"/>
+      <c r="AI196" s="6"/>
+      <c r="AJ196" s="6"/>
+      <c r="AK196" s="7"/>
+    </row>
+    <row r="197" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C197" s="5"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+      <c r="R197" s="6"/>
+      <c r="S197" s="6"/>
+      <c r="T197" s="6"/>
+      <c r="U197" s="6"/>
+      <c r="V197" s="6"/>
+      <c r="W197" s="6"/>
+      <c r="X197" s="6"/>
+      <c r="Y197" s="6"/>
+      <c r="Z197" s="6"/>
+      <c r="AA197" s="6"/>
+      <c r="AB197" s="6"/>
+      <c r="AC197" s="6"/>
+      <c r="AD197" s="6"/>
+      <c r="AE197" s="6"/>
+      <c r="AF197" s="6"/>
+      <c r="AG197" s="6"/>
+      <c r="AH197" s="6"/>
+      <c r="AI197" s="6"/>
+      <c r="AJ197" s="6"/>
+      <c r="AK197" s="7"/>
+    </row>
+    <row r="198" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C198" s="5"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="6"/>
+      <c r="T198" s="6"/>
+      <c r="U198" s="6"/>
+      <c r="V198" s="6"/>
+      <c r="W198" s="6"/>
+      <c r="X198" s="6"/>
+      <c r="Y198" s="6"/>
+      <c r="Z198" s="6"/>
+      <c r="AA198" s="6"/>
+      <c r="AB198" s="6"/>
+      <c r="AC198" s="6"/>
+      <c r="AD198" s="6"/>
+      <c r="AE198" s="6"/>
+      <c r="AF198" s="6"/>
+      <c r="AG198" s="6"/>
+      <c r="AH198" s="6"/>
+      <c r="AI198" s="6"/>
+      <c r="AJ198" s="6"/>
+      <c r="AK198" s="7"/>
+    </row>
+    <row r="199" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C199" s="5"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="6"/>
+      <c r="T199" s="6"/>
+      <c r="U199" s="6"/>
+      <c r="V199" s="6"/>
+      <c r="W199" s="6"/>
+      <c r="X199" s="6"/>
+      <c r="Y199" s="6"/>
+      <c r="Z199" s="6"/>
+      <c r="AA199" s="6"/>
+      <c r="AB199" s="6"/>
+      <c r="AC199" s="6"/>
+      <c r="AD199" s="6"/>
+      <c r="AE199" s="6"/>
+      <c r="AF199" s="6"/>
+      <c r="AG199" s="6"/>
+      <c r="AH199" s="6"/>
+      <c r="AI199" s="6"/>
+      <c r="AJ199" s="6"/>
+      <c r="AK199" s="7"/>
+    </row>
+    <row r="200" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C200" s="5"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="M200" s="6"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="6"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="6"/>
+      <c r="T200" s="6"/>
+      <c r="U200" s="6"/>
+      <c r="V200" s="6"/>
+      <c r="W200" s="6"/>
+      <c r="X200" s="6"/>
+      <c r="Y200" s="6"/>
+      <c r="Z200" s="6"/>
+      <c r="AA200" s="6"/>
+      <c r="AB200" s="6"/>
+      <c r="AC200" s="6"/>
+      <c r="AD200" s="6"/>
+      <c r="AE200" s="6"/>
+      <c r="AF200" s="6"/>
+      <c r="AG200" s="6"/>
+      <c r="AH200" s="6"/>
+      <c r="AI200" s="6"/>
+      <c r="AJ200" s="6"/>
+      <c r="AK200" s="7"/>
+    </row>
+    <row r="201" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C201" s="5"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="6"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="6"/>
+      <c r="T201" s="6"/>
+      <c r="U201" s="6"/>
+      <c r="V201" s="6"/>
+      <c r="W201" s="6"/>
+      <c r="X201" s="6"/>
+      <c r="Y201" s="6"/>
+      <c r="Z201" s="6"/>
+      <c r="AA201" s="6"/>
+      <c r="AB201" s="6"/>
+      <c r="AC201" s="6"/>
+      <c r="AD201" s="6"/>
+      <c r="AE201" s="6"/>
+      <c r="AF201" s="6"/>
+      <c r="AG201" s="6"/>
+      <c r="AH201" s="6"/>
+      <c r="AI201" s="6"/>
+      <c r="AJ201" s="6"/>
+      <c r="AK201" s="7"/>
+    </row>
+    <row r="202" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C202" s="5"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="6"/>
+      <c r="T202" s="6"/>
+      <c r="U202" s="6"/>
+      <c r="V202" s="6"/>
+      <c r="W202" s="6"/>
+      <c r="X202" s="6"/>
+      <c r="Y202" s="6"/>
+      <c r="Z202" s="6"/>
+      <c r="AA202" s="6"/>
+      <c r="AB202" s="6"/>
+      <c r="AC202" s="6"/>
+      <c r="AD202" s="6"/>
+      <c r="AE202" s="6"/>
+      <c r="AF202" s="6"/>
+      <c r="AG202" s="6"/>
+      <c r="AH202" s="6"/>
+      <c r="AI202" s="6"/>
+      <c r="AJ202" s="6"/>
+      <c r="AK202" s="7"/>
+    </row>
+    <row r="203" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C203" s="5"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="6"/>
+      <c r="T203" s="6"/>
+      <c r="U203" s="6"/>
+      <c r="V203" s="6"/>
+      <c r="W203" s="6"/>
+      <c r="X203" s="6"/>
+      <c r="Y203" s="6"/>
+      <c r="Z203" s="6"/>
+      <c r="AA203" s="6"/>
+      <c r="AB203" s="6"/>
+      <c r="AC203" s="6"/>
+      <c r="AD203" s="6"/>
+      <c r="AE203" s="6"/>
+      <c r="AF203" s="6"/>
+      <c r="AG203" s="6"/>
+      <c r="AH203" s="6"/>
+      <c r="AI203" s="6"/>
+      <c r="AJ203" s="6"/>
+      <c r="AK203" s="7"/>
+    </row>
+    <row r="204" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C204" s="5"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="6"/>
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
+      <c r="R204" s="6"/>
+      <c r="S204" s="6"/>
+      <c r="T204" s="6"/>
+      <c r="U204" s="6"/>
+      <c r="V204" s="6"/>
+      <c r="W204" s="6"/>
+      <c r="X204" s="6"/>
+      <c r="Y204" s="6"/>
+      <c r="Z204" s="6"/>
+      <c r="AA204" s="6"/>
+      <c r="AB204" s="6"/>
+      <c r="AC204" s="6"/>
+      <c r="AD204" s="6"/>
+      <c r="AE204" s="6"/>
+      <c r="AF204" s="6"/>
+      <c r="AG204" s="6"/>
+      <c r="AH204" s="6"/>
+      <c r="AI204" s="6"/>
+      <c r="AJ204" s="6"/>
+      <c r="AK204" s="7"/>
+    </row>
+    <row r="205" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C205" s="5"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="M205" s="6"/>
+      <c r="N205" s="6"/>
+      <c r="O205" s="6"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="6"/>
+      <c r="T205" s="6"/>
+      <c r="U205" s="6"/>
+      <c r="V205" s="6"/>
+      <c r="W205" s="6"/>
+      <c r="X205" s="6"/>
+      <c r="Y205" s="6"/>
+      <c r="Z205" s="6"/>
+      <c r="AA205" s="6"/>
+      <c r="AB205" s="6"/>
+      <c r="AC205" s="6"/>
+      <c r="AD205" s="6"/>
+      <c r="AE205" s="6"/>
+      <c r="AF205" s="6"/>
+      <c r="AG205" s="6"/>
+      <c r="AH205" s="6"/>
+      <c r="AI205" s="6"/>
+      <c r="AJ205" s="6"/>
+      <c r="AK205" s="7"/>
+    </row>
+    <row r="206" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C206" s="5"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6"/>
+      <c r="L206" s="6"/>
+      <c r="M206" s="6"/>
+      <c r="N206" s="6"/>
+      <c r="O206" s="6"/>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
+      <c r="R206" s="6"/>
+      <c r="S206" s="6"/>
+      <c r="T206" s="6"/>
+      <c r="U206" s="6"/>
+      <c r="V206" s="6"/>
+      <c r="W206" s="6"/>
+      <c r="X206" s="6"/>
+      <c r="Y206" s="6"/>
+      <c r="Z206" s="6"/>
+      <c r="AA206" s="6"/>
+      <c r="AB206" s="6"/>
+      <c r="AC206" s="6"/>
+      <c r="AD206" s="6"/>
+      <c r="AE206" s="6"/>
+      <c r="AF206" s="6"/>
+      <c r="AG206" s="6"/>
+      <c r="AH206" s="6"/>
+      <c r="AI206" s="6"/>
+      <c r="AJ206" s="6"/>
+      <c r="AK206" s="7"/>
+    </row>
+    <row r="207" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C207" s="5"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="M207" s="6"/>
+      <c r="N207" s="6"/>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="6"/>
+      <c r="T207" s="6"/>
+      <c r="U207" s="6"/>
+      <c r="V207" s="6"/>
+      <c r="W207" s="6"/>
+      <c r="X207" s="6"/>
+      <c r="Y207" s="6"/>
+      <c r="Z207" s="6"/>
+      <c r="AA207" s="6"/>
+      <c r="AB207" s="6"/>
+      <c r="AC207" s="6"/>
+      <c r="AD207" s="6"/>
+      <c r="AE207" s="6"/>
+      <c r="AF207" s="6"/>
+      <c r="AG207" s="6"/>
+      <c r="AH207" s="6"/>
+      <c r="AI207" s="6"/>
+      <c r="AJ207" s="6"/>
+      <c r="AK207" s="7"/>
+    </row>
+    <row r="208" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C208" s="5"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="M208" s="6"/>
+      <c r="N208" s="6"/>
+      <c r="O208" s="6"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="6"/>
+      <c r="R208" s="6"/>
+      <c r="S208" s="6"/>
+      <c r="T208" s="6"/>
+      <c r="U208" s="6"/>
+      <c r="V208" s="6"/>
+      <c r="W208" s="6"/>
+      <c r="X208" s="6"/>
+      <c r="Y208" s="6"/>
+      <c r="Z208" s="6"/>
+      <c r="AA208" s="6"/>
+      <c r="AB208" s="6"/>
+      <c r="AC208" s="6"/>
+      <c r="AD208" s="6"/>
+      <c r="AE208" s="6"/>
+      <c r="AF208" s="6"/>
+      <c r="AG208" s="6"/>
+      <c r="AH208" s="6"/>
+      <c r="AI208" s="6"/>
+      <c r="AJ208" s="6"/>
+      <c r="AK208" s="7"/>
+    </row>
+    <row r="209" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C209" s="5"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="M209" s="6"/>
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="6"/>
+      <c r="R209" s="6"/>
+      <c r="S209" s="6"/>
+      <c r="T209" s="6"/>
+      <c r="U209" s="6"/>
+      <c r="V209" s="6"/>
+      <c r="W209" s="6"/>
+      <c r="X209" s="6"/>
+      <c r="Y209" s="6"/>
+      <c r="Z209" s="6"/>
+      <c r="AA209" s="6"/>
+      <c r="AB209" s="6"/>
+      <c r="AC209" s="6"/>
+      <c r="AD209" s="6"/>
+      <c r="AE209" s="6"/>
+      <c r="AF209" s="6"/>
+      <c r="AG209" s="6"/>
+      <c r="AH209" s="6"/>
+      <c r="AI209" s="6"/>
+      <c r="AJ209" s="6"/>
+      <c r="AK209" s="7"/>
+    </row>
+    <row r="210" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C210" s="5"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="M210" s="6"/>
+      <c r="N210" s="6"/>
+      <c r="O210" s="6"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="6"/>
+      <c r="T210" s="6"/>
+      <c r="U210" s="6"/>
+      <c r="V210" s="6"/>
+      <c r="W210" s="6"/>
+      <c r="X210" s="6"/>
+      <c r="Y210" s="6"/>
+      <c r="Z210" s="6"/>
+      <c r="AA210" s="6"/>
+      <c r="AB210" s="6"/>
+      <c r="AC210" s="6"/>
+      <c r="AD210" s="6"/>
+      <c r="AE210" s="6"/>
+      <c r="AF210" s="6"/>
+      <c r="AG210" s="6"/>
+      <c r="AH210" s="6"/>
+      <c r="AI210" s="6"/>
+      <c r="AJ210" s="6"/>
+      <c r="AK210" s="7"/>
+    </row>
+    <row r="211" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C211" s="5"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+      <c r="R211" s="6"/>
+      <c r="S211" s="6"/>
+      <c r="T211" s="6"/>
+      <c r="U211" s="6"/>
+      <c r="V211" s="6"/>
+      <c r="W211" s="6"/>
+      <c r="X211" s="6"/>
+      <c r="Y211" s="6"/>
+      <c r="Z211" s="6"/>
+      <c r="AA211" s="6"/>
+      <c r="AB211" s="6"/>
+      <c r="AC211" s="6"/>
+      <c r="AD211" s="6"/>
+      <c r="AE211" s="6"/>
+      <c r="AF211" s="6"/>
+      <c r="AG211" s="6"/>
+      <c r="AH211" s="6"/>
+      <c r="AI211" s="6"/>
+      <c r="AJ211" s="6"/>
+      <c r="AK211" s="7"/>
+    </row>
+    <row r="212" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C212" s="5"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="M212" s="6"/>
+      <c r="N212" s="6"/>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
+      <c r="R212" s="6"/>
+      <c r="S212" s="6"/>
+      <c r="T212" s="6"/>
+      <c r="U212" s="6"/>
+      <c r="V212" s="6"/>
+      <c r="W212" s="6"/>
+      <c r="X212" s="6"/>
+      <c r="Y212" s="6"/>
+      <c r="Z212" s="6"/>
+      <c r="AA212" s="6"/>
+      <c r="AB212" s="6"/>
+      <c r="AC212" s="6"/>
+      <c r="AD212" s="6"/>
+      <c r="AE212" s="6"/>
+      <c r="AF212" s="6"/>
+      <c r="AG212" s="6"/>
+      <c r="AH212" s="6"/>
+      <c r="AI212" s="6"/>
+      <c r="AJ212" s="6"/>
+      <c r="AK212" s="7"/>
+    </row>
+    <row r="213" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C213" s="5"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="M213" s="6"/>
+      <c r="N213" s="6"/>
+      <c r="O213" s="6"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="6"/>
+      <c r="R213" s="6"/>
+      <c r="S213" s="6"/>
+      <c r="T213" s="6"/>
+      <c r="U213" s="6"/>
+      <c r="V213" s="6"/>
+      <c r="W213" s="6"/>
+      <c r="X213" s="6"/>
+      <c r="Y213" s="6"/>
+      <c r="Z213" s="6"/>
+      <c r="AA213" s="6"/>
+      <c r="AB213" s="6"/>
+      <c r="AC213" s="6"/>
+      <c r="AD213" s="6"/>
+      <c r="AE213" s="6"/>
+      <c r="AF213" s="6"/>
+      <c r="AG213" s="6"/>
+      <c r="AH213" s="6"/>
+      <c r="AI213" s="6"/>
+      <c r="AJ213" s="6"/>
+      <c r="AK213" s="7"/>
+    </row>
+    <row r="214" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C214" s="5"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
+      <c r="R214" s="6"/>
+      <c r="S214" s="6"/>
+      <c r="T214" s="6"/>
+      <c r="U214" s="6"/>
+      <c r="V214" s="6"/>
+      <c r="W214" s="6"/>
+      <c r="X214" s="6"/>
+      <c r="Y214" s="6"/>
+      <c r="Z214" s="6"/>
+      <c r="AA214" s="6"/>
+      <c r="AB214" s="6"/>
+      <c r="AC214" s="6"/>
+      <c r="AD214" s="6"/>
+      <c r="AE214" s="6"/>
+      <c r="AF214" s="6"/>
+      <c r="AG214" s="6"/>
+      <c r="AH214" s="6"/>
+      <c r="AI214" s="6"/>
+      <c r="AJ214" s="6"/>
+      <c r="AK214" s="7"/>
+    </row>
+    <row r="215" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C215" s="5"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="M215" s="6"/>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+      <c r="R215" s="6"/>
+      <c r="S215" s="6"/>
+      <c r="T215" s="6"/>
+      <c r="U215" s="6"/>
+      <c r="V215" s="6"/>
+      <c r="W215" s="6"/>
+      <c r="X215" s="6"/>
+      <c r="Y215" s="6"/>
+      <c r="Z215" s="6"/>
+      <c r="AA215" s="6"/>
+      <c r="AB215" s="6"/>
+      <c r="AC215" s="6"/>
+      <c r="AD215" s="6"/>
+      <c r="AE215" s="6"/>
+      <c r="AF215" s="6"/>
+      <c r="AG215" s="6"/>
+      <c r="AH215" s="6"/>
+      <c r="AI215" s="6"/>
+      <c r="AJ215" s="6"/>
+      <c r="AK215" s="7"/>
+    </row>
+    <row r="216" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C216" s="5"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
+      <c r="R216" s="6"/>
+      <c r="S216" s="6"/>
+      <c r="T216" s="6"/>
+      <c r="U216" s="6"/>
+      <c r="V216" s="6"/>
+      <c r="W216" s="6"/>
+      <c r="X216" s="6"/>
+      <c r="Y216" s="6"/>
+      <c r="Z216" s="6"/>
+      <c r="AA216" s="6"/>
+      <c r="AB216" s="6"/>
+      <c r="AC216" s="6"/>
+      <c r="AD216" s="6"/>
+      <c r="AE216" s="6"/>
+      <c r="AF216" s="6"/>
+      <c r="AG216" s="6"/>
+      <c r="AH216" s="6"/>
+      <c r="AI216" s="6"/>
+      <c r="AJ216" s="6"/>
+      <c r="AK216" s="7"/>
+    </row>
+    <row r="217" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C217" s="5"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="6"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="6"/>
+      <c r="T217" s="6"/>
+      <c r="U217" s="6"/>
+      <c r="V217" s="6"/>
+      <c r="W217" s="6"/>
+      <c r="X217" s="6"/>
+      <c r="Y217" s="6"/>
+      <c r="Z217" s="6"/>
+      <c r="AA217" s="6"/>
+      <c r="AB217" s="6"/>
+      <c r="AC217" s="6"/>
+      <c r="AD217" s="6"/>
+      <c r="AE217" s="6"/>
+      <c r="AF217" s="6"/>
+      <c r="AG217" s="6"/>
+      <c r="AH217" s="6"/>
+      <c r="AI217" s="6"/>
+      <c r="AJ217" s="6"/>
+      <c r="AK217" s="7"/>
+    </row>
+    <row r="218" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C218" s="5"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="6"/>
+      <c r="T218" s="6"/>
+      <c r="U218" s="6"/>
+      <c r="V218" s="6"/>
+      <c r="W218" s="6"/>
+      <c r="X218" s="6"/>
+      <c r="Y218" s="6"/>
+      <c r="Z218" s="6"/>
+      <c r="AA218" s="6"/>
+      <c r="AB218" s="6"/>
+      <c r="AC218" s="6"/>
+      <c r="AD218" s="6"/>
+      <c r="AE218" s="6"/>
+      <c r="AF218" s="6"/>
+      <c r="AG218" s="6"/>
+      <c r="AH218" s="6"/>
+      <c r="AI218" s="6"/>
+      <c r="AJ218" s="6"/>
+      <c r="AK218" s="7"/>
+    </row>
+    <row r="219" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C219" s="5"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+      <c r="M219" s="6"/>
+      <c r="N219" s="6"/>
+      <c r="O219" s="6"/>
+      <c r="P219" s="6"/>
+      <c r="Q219" s="6"/>
+      <c r="R219" s="6"/>
+      <c r="S219" s="6"/>
+      <c r="T219" s="6"/>
+      <c r="U219" s="6"/>
+      <c r="V219" s="6"/>
+      <c r="W219" s="6"/>
+      <c r="X219" s="6"/>
+      <c r="Y219" s="6"/>
+      <c r="Z219" s="6"/>
+      <c r="AA219" s="6"/>
+      <c r="AB219" s="6"/>
+      <c r="AC219" s="6"/>
+      <c r="AD219" s="6"/>
+      <c r="AE219" s="6"/>
+      <c r="AF219" s="6"/>
+      <c r="AG219" s="6"/>
+      <c r="AH219" s="6"/>
+      <c r="AI219" s="6"/>
+      <c r="AJ219" s="6"/>
+      <c r="AK219" s="7"/>
+    </row>
+    <row r="220" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C220" s="5"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="6"/>
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+      <c r="R220" s="6"/>
+      <c r="S220" s="6"/>
+      <c r="T220" s="6"/>
+      <c r="U220" s="6"/>
+      <c r="V220" s="6"/>
+      <c r="W220" s="6"/>
+      <c r="X220" s="6"/>
+      <c r="Y220" s="6"/>
+      <c r="Z220" s="6"/>
+      <c r="AA220" s="6"/>
+      <c r="AB220" s="6"/>
+      <c r="AC220" s="6"/>
+      <c r="AD220" s="6"/>
+      <c r="AE220" s="6"/>
+      <c r="AF220" s="6"/>
+      <c r="AG220" s="6"/>
+      <c r="AH220" s="6"/>
+      <c r="AI220" s="6"/>
+      <c r="AJ220" s="6"/>
+      <c r="AK220" s="7"/>
+    </row>
+    <row r="221" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C221" s="5"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="6"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+      <c r="M221" s="6"/>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
+      <c r="R221" s="6"/>
+      <c r="S221" s="6"/>
+      <c r="T221" s="6"/>
+      <c r="U221" s="6"/>
+      <c r="V221" s="6"/>
+      <c r="W221" s="6"/>
+      <c r="X221" s="6"/>
+      <c r="Y221" s="6"/>
+      <c r="Z221" s="6"/>
+      <c r="AA221" s="6"/>
+      <c r="AB221" s="6"/>
+      <c r="AC221" s="6"/>
+      <c r="AD221" s="6"/>
+      <c r="AE221" s="6"/>
+      <c r="AF221" s="6"/>
+      <c r="AG221" s="6"/>
+      <c r="AH221" s="6"/>
+      <c r="AI221" s="6"/>
+      <c r="AJ221" s="6"/>
+      <c r="AK221" s="7"/>
+    </row>
+    <row r="222" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C222" s="5"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="6"/>
+      <c r="K222" s="6"/>
+      <c r="L222" s="6"/>
+      <c r="M222" s="6"/>
+      <c r="N222" s="6"/>
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
+      <c r="Q222" s="6"/>
+      <c r="R222" s="6"/>
+      <c r="S222" s="6"/>
+      <c r="T222" s="6"/>
+      <c r="U222" s="6"/>
+      <c r="V222" s="6"/>
+      <c r="W222" s="6"/>
+      <c r="X222" s="6"/>
+      <c r="Y222" s="6"/>
+      <c r="Z222" s="6"/>
+      <c r="AA222" s="6"/>
+      <c r="AB222" s="6"/>
+      <c r="AC222" s="6"/>
+      <c r="AD222" s="6"/>
+      <c r="AE222" s="6"/>
+      <c r="AF222" s="6"/>
+      <c r="AG222" s="6"/>
+      <c r="AH222" s="6"/>
+      <c r="AI222" s="6"/>
+      <c r="AJ222" s="6"/>
+      <c r="AK222" s="7"/>
+    </row>
+    <row r="223" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C223" s="5"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="6"/>
+      <c r="K223" s="6"/>
+      <c r="L223" s="6"/>
+      <c r="M223" s="6"/>
+      <c r="N223" s="6"/>
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
+      <c r="Q223" s="6"/>
+      <c r="R223" s="6"/>
+      <c r="S223" s="6"/>
+      <c r="T223" s="6"/>
+      <c r="U223" s="6"/>
+      <c r="V223" s="6"/>
+      <c r="W223" s="6"/>
+      <c r="X223" s="6"/>
+      <c r="Y223" s="6"/>
+      <c r="Z223" s="6"/>
+      <c r="AA223" s="6"/>
+      <c r="AB223" s="6"/>
+      <c r="AC223" s="6"/>
+      <c r="AD223" s="6"/>
+      <c r="AE223" s="6"/>
+      <c r="AF223" s="6"/>
+      <c r="AG223" s="6"/>
+      <c r="AH223" s="6"/>
+      <c r="AI223" s="6"/>
+      <c r="AJ223" s="6"/>
+      <c r="AK223" s="7"/>
+    </row>
+    <row r="224" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C224" s="5"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="6"/>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
+      <c r="M224" s="6"/>
+      <c r="N224" s="6"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+      <c r="R224" s="6"/>
+      <c r="S224" s="6"/>
+      <c r="T224" s="6"/>
+      <c r="U224" s="6"/>
+      <c r="V224" s="6"/>
+      <c r="W224" s="6"/>
+      <c r="X224" s="6"/>
+      <c r="Y224" s="6"/>
+      <c r="Z224" s="6"/>
+      <c r="AA224" s="6"/>
+      <c r="AB224" s="6"/>
+      <c r="AC224" s="6"/>
+      <c r="AD224" s="6"/>
+      <c r="AE224" s="6"/>
+      <c r="AF224" s="6"/>
+      <c r="AG224" s="6"/>
+      <c r="AH224" s="6"/>
+      <c r="AI224" s="6"/>
+      <c r="AJ224" s="6"/>
+      <c r="AK224" s="7"/>
+    </row>
+    <row r="225" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C225" s="5"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="6"/>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
+      <c r="M225" s="6"/>
+      <c r="N225" s="6"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+      <c r="Q225" s="6"/>
+      <c r="R225" s="6"/>
+      <c r="S225" s="6"/>
+      <c r="T225" s="6"/>
+      <c r="U225" s="6"/>
+      <c r="V225" s="6"/>
+      <c r="W225" s="6"/>
+      <c r="X225" s="6"/>
+      <c r="Y225" s="6"/>
+      <c r="Z225" s="6"/>
+      <c r="AA225" s="6"/>
+      <c r="AB225" s="6"/>
+      <c r="AC225" s="6"/>
+      <c r="AD225" s="6"/>
+      <c r="AE225" s="6"/>
+      <c r="AF225" s="6"/>
+      <c r="AG225" s="6"/>
+      <c r="AH225" s="6"/>
+      <c r="AI225" s="6"/>
+      <c r="AJ225" s="6"/>
+      <c r="AK225" s="7"/>
+    </row>
+    <row r="226" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C226" s="5"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="6"/>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="6"/>
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="6"/>
+      <c r="T226" s="6"/>
+      <c r="U226" s="6"/>
+      <c r="V226" s="6"/>
+      <c r="W226" s="6"/>
+      <c r="X226" s="6"/>
+      <c r="Y226" s="6"/>
+      <c r="Z226" s="6"/>
+      <c r="AA226" s="6"/>
+      <c r="AB226" s="6"/>
+      <c r="AC226" s="6"/>
+      <c r="AD226" s="6"/>
+      <c r="AE226" s="6"/>
+      <c r="AF226" s="6"/>
+      <c r="AG226" s="6"/>
+      <c r="AH226" s="6"/>
+      <c r="AI226" s="6"/>
+      <c r="AJ226" s="6"/>
+      <c r="AK226" s="7"/>
+    </row>
+    <row r="227" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C227" s="5"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6"/>
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+      <c r="Q227" s="6"/>
+      <c r="R227" s="6"/>
+      <c r="S227" s="6"/>
+      <c r="T227" s="6"/>
+      <c r="U227" s="6"/>
+      <c r="V227" s="6"/>
+      <c r="W227" s="6"/>
+      <c r="X227" s="6"/>
+      <c r="Y227" s="6"/>
+      <c r="Z227" s="6"/>
+      <c r="AA227" s="6"/>
+      <c r="AB227" s="6"/>
+      <c r="AC227" s="6"/>
+      <c r="AD227" s="6"/>
+      <c r="AE227" s="6"/>
+      <c r="AF227" s="6"/>
+      <c r="AG227" s="6"/>
+      <c r="AH227" s="6"/>
+      <c r="AI227" s="6"/>
+      <c r="AJ227" s="6"/>
+      <c r="AK227" s="7"/>
+    </row>
+    <row r="228" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C228" s="5"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="6"/>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="6"/>
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+      <c r="Q228" s="6"/>
+      <c r="R228" s="6"/>
+      <c r="S228" s="6"/>
+      <c r="T228" s="6"/>
+      <c r="U228" s="6"/>
+      <c r="V228" s="6"/>
+      <c r="W228" s="6"/>
+      <c r="X228" s="6"/>
+      <c r="Y228" s="6"/>
+      <c r="Z228" s="6"/>
+      <c r="AA228" s="6"/>
+      <c r="AB228" s="6"/>
+      <c r="AC228" s="6"/>
+      <c r="AD228" s="6"/>
+      <c r="AE228" s="6"/>
+      <c r="AF228" s="6"/>
+      <c r="AG228" s="6"/>
+      <c r="AH228" s="6"/>
+      <c r="AI228" s="6"/>
+      <c r="AJ228" s="6"/>
+      <c r="AK228" s="7"/>
+    </row>
+    <row r="229" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C229" s="5"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+      <c r="I229" s="6"/>
+      <c r="J229" s="6"/>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="6"/>
+      <c r="N229" s="6"/>
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
+      <c r="Q229" s="6"/>
+      <c r="R229" s="6"/>
+      <c r="S229" s="6"/>
+      <c r="T229" s="6"/>
+      <c r="U229" s="6"/>
+      <c r="V229" s="6"/>
+      <c r="W229" s="6"/>
+      <c r="X229" s="6"/>
+      <c r="Y229" s="6"/>
+      <c r="Z229" s="6"/>
+      <c r="AA229" s="6"/>
+      <c r="AB229" s="6"/>
+      <c r="AC229" s="6"/>
+      <c r="AD229" s="6"/>
+      <c r="AE229" s="6"/>
+      <c r="AF229" s="6"/>
+      <c r="AG229" s="6"/>
+      <c r="AH229" s="6"/>
+      <c r="AI229" s="6"/>
+      <c r="AJ229" s="6"/>
+      <c r="AK229" s="7"/>
+    </row>
+    <row r="230" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C230" s="5"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
+      <c r="K230" s="6"/>
+      <c r="L230" s="6"/>
+      <c r="M230" s="6"/>
+      <c r="N230" s="6"/>
+      <c r="O230" s="6"/>
+      <c r="P230" s="6"/>
+      <c r="Q230" s="6"/>
+      <c r="R230" s="6"/>
+      <c r="S230" s="6"/>
+      <c r="T230" s="6"/>
+      <c r="U230" s="6"/>
+      <c r="V230" s="6"/>
+      <c r="W230" s="6"/>
+      <c r="X230" s="6"/>
+      <c r="Y230" s="6"/>
+      <c r="Z230" s="6"/>
+      <c r="AA230" s="6"/>
+      <c r="AB230" s="6"/>
+      <c r="AC230" s="6"/>
+      <c r="AD230" s="6"/>
+      <c r="AE230" s="6"/>
+      <c r="AF230" s="6"/>
+      <c r="AG230" s="6"/>
+      <c r="AH230" s="6"/>
+      <c r="AI230" s="6"/>
+      <c r="AJ230" s="6"/>
+      <c r="AK230" s="7"/>
+    </row>
+    <row r="231" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C231" s="5"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
+      <c r="I231" s="6"/>
+      <c r="J231" s="6"/>
+      <c r="K231" s="6"/>
+      <c r="L231" s="6"/>
+      <c r="M231" s="6"/>
+      <c r="N231" s="6"/>
+      <c r="O231" s="6"/>
+      <c r="P231" s="6"/>
+      <c r="Q231" s="6"/>
+      <c r="R231" s="6"/>
+      <c r="S231" s="6"/>
+      <c r="T231" s="6"/>
+      <c r="U231" s="6"/>
+      <c r="V231" s="6"/>
+      <c r="W231" s="6"/>
+      <c r="X231" s="6"/>
+      <c r="Y231" s="6"/>
+      <c r="Z231" s="6"/>
+      <c r="AA231" s="6"/>
+      <c r="AB231" s="6"/>
+      <c r="AC231" s="6"/>
+      <c r="AD231" s="6"/>
+      <c r="AE231" s="6"/>
+      <c r="AF231" s="6"/>
+      <c r="AG231" s="6"/>
+      <c r="AH231" s="6"/>
+      <c r="AI231" s="6"/>
+      <c r="AJ231" s="6"/>
+      <c r="AK231" s="7"/>
+    </row>
+    <row r="232" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C232" s="5"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6"/>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+      <c r="M232" s="6"/>
+      <c r="N232" s="6"/>
+      <c r="O232" s="6"/>
+      <c r="P232" s="6"/>
+      <c r="Q232" s="6"/>
+      <c r="R232" s="6"/>
+      <c r="S232" s="6"/>
+      <c r="T232" s="6"/>
+      <c r="U232" s="6"/>
+      <c r="V232" s="6"/>
+      <c r="W232" s="6"/>
+      <c r="X232" s="6"/>
+      <c r="Y232" s="6"/>
+      <c r="Z232" s="6"/>
+      <c r="AA232" s="6"/>
+      <c r="AB232" s="6"/>
+      <c r="AC232" s="6"/>
+      <c r="AD232" s="6"/>
+      <c r="AE232" s="6"/>
+      <c r="AF232" s="6"/>
+      <c r="AG232" s="6"/>
+      <c r="AH232" s="6"/>
+      <c r="AI232" s="6"/>
+      <c r="AJ232" s="6"/>
+      <c r="AK232" s="7"/>
+    </row>
+    <row r="233" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C233" s="5"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+      <c r="M233" s="6"/>
+      <c r="N233" s="6"/>
+      <c r="O233" s="6"/>
+      <c r="P233" s="6"/>
+      <c r="Q233" s="6"/>
+      <c r="R233" s="6"/>
+      <c r="S233" s="6"/>
+      <c r="T233" s="6"/>
+      <c r="U233" s="6"/>
+      <c r="V233" s="6"/>
+      <c r="W233" s="6"/>
+      <c r="X233" s="6"/>
+      <c r="Y233" s="6"/>
+      <c r="Z233" s="6"/>
+      <c r="AA233" s="6"/>
+      <c r="AB233" s="6"/>
+      <c r="AC233" s="6"/>
+      <c r="AD233" s="6"/>
+      <c r="AE233" s="6"/>
+      <c r="AF233" s="6"/>
+      <c r="AG233" s="6"/>
+      <c r="AH233" s="6"/>
+      <c r="AI233" s="6"/>
+      <c r="AJ233" s="6"/>
+      <c r="AK233" s="7"/>
+    </row>
+    <row r="234" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C234" s="5"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+      <c r="I234" s="6"/>
+      <c r="J234" s="6"/>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+      <c r="M234" s="6"/>
+      <c r="N234" s="6"/>
+      <c r="O234" s="6"/>
+      <c r="P234" s="6"/>
+      <c r="Q234" s="6"/>
+      <c r="R234" s="6"/>
+      <c r="S234" s="6"/>
+      <c r="T234" s="6"/>
+      <c r="U234" s="6"/>
+      <c r="V234" s="6"/>
+      <c r="W234" s="6"/>
+      <c r="X234" s="6"/>
+      <c r="Y234" s="6"/>
+      <c r="Z234" s="6"/>
+      <c r="AA234" s="6"/>
+      <c r="AB234" s="6"/>
+      <c r="AC234" s="6"/>
+      <c r="AD234" s="6"/>
+      <c r="AE234" s="6"/>
+      <c r="AF234" s="6"/>
+      <c r="AG234" s="6"/>
+      <c r="AH234" s="6"/>
+      <c r="AI234" s="6"/>
+      <c r="AJ234" s="6"/>
+      <c r="AK234" s="7"/>
+    </row>
+    <row r="235" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C235" s="5"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6"/>
+      <c r="N235" s="6"/>
+      <c r="O235" s="6"/>
+      <c r="P235" s="6"/>
+      <c r="Q235" s="6"/>
+      <c r="R235" s="6"/>
+      <c r="S235" s="6"/>
+      <c r="T235" s="6"/>
+      <c r="U235" s="6"/>
+      <c r="V235" s="6"/>
+      <c r="W235" s="6"/>
+      <c r="X235" s="6"/>
+      <c r="Y235" s="6"/>
+      <c r="Z235" s="6"/>
+      <c r="AA235" s="6"/>
+      <c r="AB235" s="6"/>
+      <c r="AC235" s="6"/>
+      <c r="AD235" s="6"/>
+      <c r="AE235" s="6"/>
+      <c r="AF235" s="6"/>
+      <c r="AG235" s="6"/>
+      <c r="AH235" s="6"/>
+      <c r="AI235" s="6"/>
+      <c r="AJ235" s="6"/>
+      <c r="AK235" s="7"/>
+    </row>
+    <row r="236" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C236" s="5"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="6"/>
+      <c r="N236" s="6"/>
+      <c r="O236" s="6"/>
+      <c r="P236" s="6"/>
+      <c r="Q236" s="6"/>
+      <c r="R236" s="6"/>
+      <c r="S236" s="6"/>
+      <c r="T236" s="6"/>
+      <c r="U236" s="6"/>
+      <c r="V236" s="6"/>
+      <c r="W236" s="6"/>
+      <c r="X236" s="6"/>
+      <c r="Y236" s="6"/>
+      <c r="Z236" s="6"/>
+      <c r="AA236" s="6"/>
+      <c r="AB236" s="6"/>
+      <c r="AC236" s="6"/>
+      <c r="AD236" s="6"/>
+      <c r="AE236" s="6"/>
+      <c r="AF236" s="6"/>
+      <c r="AG236" s="6"/>
+      <c r="AH236" s="6"/>
+      <c r="AI236" s="6"/>
+      <c r="AJ236" s="6"/>
+      <c r="AK236" s="7"/>
+    </row>
+    <row r="237" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C237" s="5"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="6"/>
+      <c r="N237" s="6"/>
+      <c r="O237" s="6"/>
+      <c r="P237" s="6"/>
+      <c r="Q237" s="6"/>
+      <c r="R237" s="6"/>
+      <c r="S237" s="6"/>
+      <c r="T237" s="6"/>
+      <c r="U237" s="6"/>
+      <c r="V237" s="6"/>
+      <c r="W237" s="6"/>
+      <c r="X237" s="6"/>
+      <c r="Y237" s="6"/>
+      <c r="Z237" s="6"/>
+      <c r="AA237" s="6"/>
+      <c r="AB237" s="6"/>
+      <c r="AC237" s="6"/>
+      <c r="AD237" s="6"/>
+      <c r="AE237" s="6"/>
+      <c r="AF237" s="6"/>
+      <c r="AG237" s="6"/>
+      <c r="AH237" s="6"/>
+      <c r="AI237" s="6"/>
+      <c r="AJ237" s="6"/>
+      <c r="AK237" s="7"/>
+    </row>
+    <row r="238" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C238" s="5"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+      <c r="R238" s="6"/>
+      <c r="S238" s="6"/>
+      <c r="T238" s="6"/>
+      <c r="U238" s="6"/>
+      <c r="V238" s="6"/>
+      <c r="W238" s="6"/>
+      <c r="X238" s="6"/>
+      <c r="Y238" s="6"/>
+      <c r="Z238" s="6"/>
+      <c r="AA238" s="6"/>
+      <c r="AB238" s="6"/>
+      <c r="AC238" s="6"/>
+      <c r="AD238" s="6"/>
+      <c r="AE238" s="6"/>
+      <c r="AF238" s="6"/>
+      <c r="AG238" s="6"/>
+      <c r="AH238" s="6"/>
+      <c r="AI238" s="6"/>
+      <c r="AJ238" s="6"/>
+      <c r="AK238" s="7"/>
+    </row>
+    <row r="239" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C239" s="5"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+      <c r="M239" s="6"/>
+      <c r="N239" s="6"/>
+      <c r="O239" s="6"/>
+      <c r="P239" s="6"/>
+      <c r="Q239" s="6"/>
+      <c r="R239" s="6"/>
+      <c r="S239" s="6"/>
+      <c r="T239" s="6"/>
+      <c r="U239" s="6"/>
+      <c r="V239" s="6"/>
+      <c r="W239" s="6"/>
+      <c r="X239" s="6"/>
+      <c r="Y239" s="6"/>
+      <c r="Z239" s="6"/>
+      <c r="AA239" s="6"/>
+      <c r="AB239" s="6"/>
+      <c r="AC239" s="6"/>
+      <c r="AD239" s="6"/>
+      <c r="AE239" s="6"/>
+      <c r="AF239" s="6"/>
+      <c r="AG239" s="6"/>
+      <c r="AH239" s="6"/>
+      <c r="AI239" s="6"/>
+      <c r="AJ239" s="6"/>
+      <c r="AK239" s="7"/>
+    </row>
+    <row r="240" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C240" s="5"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+      <c r="M240" s="6"/>
+      <c r="N240" s="6"/>
+      <c r="O240" s="6"/>
+      <c r="P240" s="6"/>
+      <c r="Q240" s="6"/>
+      <c r="R240" s="6"/>
+      <c r="S240" s="6"/>
+      <c r="T240" s="6"/>
+      <c r="U240" s="6"/>
+      <c r="V240" s="6"/>
+      <c r="W240" s="6"/>
+      <c r="X240" s="6"/>
+      <c r="Y240" s="6"/>
+      <c r="Z240" s="6"/>
+      <c r="AA240" s="6"/>
+      <c r="AB240" s="6"/>
+      <c r="AC240" s="6"/>
+      <c r="AD240" s="6"/>
+      <c r="AE240" s="6"/>
+      <c r="AF240" s="6"/>
+      <c r="AG240" s="6"/>
+      <c r="AH240" s="6"/>
+      <c r="AI240" s="6"/>
+      <c r="AJ240" s="6"/>
+      <c r="AK240" s="7"/>
+    </row>
+    <row r="241" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C241" s="5"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+      <c r="M241" s="6"/>
+      <c r="N241" s="6"/>
+      <c r="O241" s="6"/>
+      <c r="P241" s="6"/>
+      <c r="Q241" s="6"/>
+      <c r="R241" s="6"/>
+      <c r="S241" s="6"/>
+      <c r="T241" s="6"/>
+      <c r="U241" s="6"/>
+      <c r="V241" s="6"/>
+      <c r="W241" s="6"/>
+      <c r="X241" s="6"/>
+      <c r="Y241" s="6"/>
+      <c r="Z241" s="6"/>
+      <c r="AA241" s="6"/>
+      <c r="AB241" s="6"/>
+      <c r="AC241" s="6"/>
+      <c r="AD241" s="6"/>
+      <c r="AE241" s="6"/>
+      <c r="AF241" s="6"/>
+      <c r="AG241" s="6"/>
+      <c r="AH241" s="6"/>
+      <c r="AI241" s="6"/>
+      <c r="AJ241" s="6"/>
+      <c r="AK241" s="7"/>
+    </row>
+    <row r="242" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C242" s="5"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6"/>
+      <c r="N242" s="6"/>
+      <c r="O242" s="6"/>
+      <c r="P242" s="6"/>
+      <c r="Q242" s="6"/>
+      <c r="R242" s="6"/>
+      <c r="S242" s="6"/>
+      <c r="T242" s="6"/>
+      <c r="U242" s="6"/>
+      <c r="V242" s="6"/>
+      <c r="W242" s="6"/>
+      <c r="X242" s="6"/>
+      <c r="Y242" s="6"/>
+      <c r="Z242" s="6"/>
+      <c r="AA242" s="6"/>
+      <c r="AB242" s="6"/>
+      <c r="AC242" s="6"/>
+      <c r="AD242" s="6"/>
+      <c r="AE242" s="6"/>
+      <c r="AF242" s="6"/>
+      <c r="AG242" s="6"/>
+      <c r="AH242" s="6"/>
+      <c r="AI242" s="6"/>
+      <c r="AJ242" s="6"/>
+      <c r="AK242" s="7"/>
+    </row>
+    <row r="243" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C243" s="5"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+      <c r="M243" s="6"/>
+      <c r="N243" s="6"/>
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
+      <c r="Q243" s="6"/>
+      <c r="R243" s="6"/>
+      <c r="S243" s="6"/>
+      <c r="T243" s="6"/>
+      <c r="U243" s="6"/>
+      <c r="V243" s="6"/>
+      <c r="W243" s="6"/>
+      <c r="X243" s="6"/>
+      <c r="Y243" s="6"/>
+      <c r="Z243" s="6"/>
+      <c r="AA243" s="6"/>
+      <c r="AB243" s="6"/>
+      <c r="AC243" s="6"/>
+      <c r="AD243" s="6"/>
+      <c r="AE243" s="6"/>
+      <c r="AF243" s="6"/>
+      <c r="AG243" s="6"/>
+      <c r="AH243" s="6"/>
+      <c r="AI243" s="6"/>
+      <c r="AJ243" s="6"/>
+      <c r="AK243" s="7"/>
+    </row>
+    <row r="244" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C244" s="5"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+      <c r="M244" s="6"/>
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+      <c r="P244" s="6"/>
+      <c r="Q244" s="6"/>
+      <c r="R244" s="6"/>
+      <c r="S244" s="6"/>
+      <c r="T244" s="6"/>
+      <c r="U244" s="6"/>
+      <c r="V244" s="6"/>
+      <c r="W244" s="6"/>
+      <c r="X244" s="6"/>
+      <c r="Y244" s="6"/>
+      <c r="Z244" s="6"/>
+      <c r="AA244" s="6"/>
+      <c r="AB244" s="6"/>
+      <c r="AC244" s="6"/>
+      <c r="AD244" s="6"/>
+      <c r="AE244" s="6"/>
+      <c r="AF244" s="6"/>
+      <c r="AG244" s="6"/>
+      <c r="AH244" s="6"/>
+      <c r="AI244" s="6"/>
+      <c r="AJ244" s="6"/>
+      <c r="AK244" s="7"/>
+    </row>
+    <row r="245" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C245" s="5"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+      <c r="M245" s="6"/>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
+      <c r="Q245" s="6"/>
+      <c r="R245" s="6"/>
+      <c r="S245" s="6"/>
+      <c r="T245" s="6"/>
+      <c r="U245" s="6"/>
+      <c r="V245" s="6"/>
+      <c r="W245" s="6"/>
+      <c r="X245" s="6"/>
+      <c r="Y245" s="6"/>
+      <c r="Z245" s="6"/>
+      <c r="AA245" s="6"/>
+      <c r="AB245" s="6"/>
+      <c r="AC245" s="6"/>
+      <c r="AD245" s="6"/>
+      <c r="AE245" s="6"/>
+      <c r="AF245" s="6"/>
+      <c r="AG245" s="6"/>
+      <c r="AH245" s="6"/>
+      <c r="AI245" s="6"/>
+      <c r="AJ245" s="6"/>
+      <c r="AK245" s="7"/>
+    </row>
+    <row r="246" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C246" s="5"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6"/>
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
+      <c r="Q246" s="6"/>
+      <c r="R246" s="6"/>
+      <c r="S246" s="6"/>
+      <c r="T246" s="6"/>
+      <c r="U246" s="6"/>
+      <c r="V246" s="6"/>
+      <c r="W246" s="6"/>
+      <c r="X246" s="6"/>
+      <c r="Y246" s="6"/>
+      <c r="Z246" s="6"/>
+      <c r="AA246" s="6"/>
+      <c r="AB246" s="6"/>
+      <c r="AC246" s="6"/>
+      <c r="AD246" s="6"/>
+      <c r="AE246" s="6"/>
+      <c r="AF246" s="6"/>
+      <c r="AG246" s="6"/>
+      <c r="AH246" s="6"/>
+      <c r="AI246" s="6"/>
+      <c r="AJ246" s="6"/>
+      <c r="AK246" s="7"/>
+    </row>
+    <row r="247" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C247" s="5"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+      <c r="M247" s="6"/>
+      <c r="N247" s="6"/>
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="6"/>
+      <c r="R247" s="6"/>
+      <c r="S247" s="6"/>
+      <c r="T247" s="6"/>
+      <c r="U247" s="6"/>
+      <c r="V247" s="6"/>
+      <c r="W247" s="6"/>
+      <c r="X247" s="6"/>
+      <c r="Y247" s="6"/>
+      <c r="Z247" s="6"/>
+      <c r="AA247" s="6"/>
+      <c r="AB247" s="6"/>
+      <c r="AC247" s="6"/>
+      <c r="AD247" s="6"/>
+      <c r="AE247" s="6"/>
+      <c r="AF247" s="6"/>
+      <c r="AG247" s="6"/>
+      <c r="AH247" s="6"/>
+      <c r="AI247" s="6"/>
+      <c r="AJ247" s="6"/>
+      <c r="AK247" s="7"/>
+    </row>
+    <row r="248" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C248" s="5"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+      <c r="M248" s="6"/>
+      <c r="N248" s="6"/>
+      <c r="O248" s="6"/>
+      <c r="P248" s="6"/>
+      <c r="Q248" s="6"/>
+      <c r="R248" s="6"/>
+      <c r="S248" s="6"/>
+      <c r="T248" s="6"/>
+      <c r="U248" s="6"/>
+      <c r="V248" s="6"/>
+      <c r="W248" s="6"/>
+      <c r="X248" s="6"/>
+      <c r="Y248" s="6"/>
+      <c r="Z248" s="6"/>
+      <c r="AA248" s="6"/>
+      <c r="AB248" s="6"/>
+      <c r="AC248" s="6"/>
+      <c r="AD248" s="6"/>
+      <c r="AE248" s="6"/>
+      <c r="AF248" s="6"/>
+      <c r="AG248" s="6"/>
+      <c r="AH248" s="6"/>
+      <c r="AI248" s="6"/>
+      <c r="AJ248" s="6"/>
+      <c r="AK248" s="7"/>
+    </row>
+    <row r="249" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C249" s="5"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+      <c r="M249" s="6"/>
+      <c r="N249" s="6"/>
+      <c r="O249" s="6"/>
+      <c r="P249" s="6"/>
+      <c r="Q249" s="6"/>
+      <c r="R249" s="6"/>
+      <c r="S249" s="6"/>
+      <c r="T249" s="6"/>
+      <c r="U249" s="6"/>
+      <c r="V249" s="6"/>
+      <c r="W249" s="6"/>
+      <c r="X249" s="6"/>
+      <c r="Y249" s="6"/>
+      <c r="Z249" s="6"/>
+      <c r="AA249" s="6"/>
+      <c r="AB249" s="6"/>
+      <c r="AC249" s="6"/>
+      <c r="AD249" s="6"/>
+      <c r="AE249" s="6"/>
+      <c r="AF249" s="6"/>
+      <c r="AG249" s="6"/>
+      <c r="AH249" s="6"/>
+      <c r="AI249" s="6"/>
+      <c r="AJ249" s="6"/>
+      <c r="AK249" s="7"/>
+    </row>
+    <row r="250" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C250" s="5"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+      <c r="M250" s="6"/>
+      <c r="N250" s="6"/>
+      <c r="O250" s="6"/>
+      <c r="P250" s="6"/>
+      <c r="Q250" s="6"/>
+      <c r="R250" s="6"/>
+      <c r="S250" s="6"/>
+      <c r="T250" s="6"/>
+      <c r="U250" s="6"/>
+      <c r="V250" s="6"/>
+      <c r="W250" s="6"/>
+      <c r="X250" s="6"/>
+      <c r="Y250" s="6"/>
+      <c r="Z250" s="6"/>
+      <c r="AA250" s="6"/>
+      <c r="AB250" s="6"/>
+      <c r="AC250" s="6"/>
+      <c r="AD250" s="6"/>
+      <c r="AE250" s="6"/>
+      <c r="AF250" s="6"/>
+      <c r="AG250" s="6"/>
+      <c r="AH250" s="6"/>
+      <c r="AI250" s="6"/>
+      <c r="AJ250" s="6"/>
+      <c r="AK250" s="7"/>
+    </row>
+    <row r="251" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C251" s="5"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
+      <c r="M251" s="6"/>
+      <c r="N251" s="6"/>
+      <c r="O251" s="6"/>
+      <c r="P251" s="6"/>
+      <c r="Q251" s="6"/>
+      <c r="R251" s="6"/>
+      <c r="S251" s="6"/>
+      <c r="T251" s="6"/>
+      <c r="U251" s="6"/>
+      <c r="V251" s="6"/>
+      <c r="W251" s="6"/>
+      <c r="X251" s="6"/>
+      <c r="Y251" s="6"/>
+      <c r="Z251" s="6"/>
+      <c r="AA251" s="6"/>
+      <c r="AB251" s="6"/>
+      <c r="AC251" s="6"/>
+      <c r="AD251" s="6"/>
+      <c r="AE251" s="6"/>
+      <c r="AF251" s="6"/>
+      <c r="AG251" s="6"/>
+      <c r="AH251" s="6"/>
+      <c r="AI251" s="6"/>
+      <c r="AJ251" s="6"/>
+      <c r="AK251" s="7"/>
+    </row>
+    <row r="252" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C252" s="5"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+      <c r="I252" s="6"/>
+      <c r="J252" s="6"/>
+      <c r="K252" s="6"/>
+      <c r="L252" s="6"/>
+      <c r="M252" s="6"/>
+      <c r="N252" s="6"/>
+      <c r="O252" s="6"/>
+      <c r="P252" s="6"/>
+      <c r="Q252" s="6"/>
+      <c r="R252" s="6"/>
+      <c r="S252" s="6"/>
+      <c r="T252" s="6"/>
+      <c r="U252" s="6"/>
+      <c r="V252" s="6"/>
+      <c r="W252" s="6"/>
+      <c r="X252" s="6"/>
+      <c r="Y252" s="6"/>
+      <c r="Z252" s="6"/>
+      <c r="AA252" s="6"/>
+      <c r="AB252" s="6"/>
+      <c r="AC252" s="6"/>
+      <c r="AD252" s="6"/>
+      <c r="AE252" s="6"/>
+      <c r="AF252" s="6"/>
+      <c r="AG252" s="6"/>
+      <c r="AH252" s="6"/>
+      <c r="AI252" s="6"/>
+      <c r="AJ252" s="6"/>
+      <c r="AK252" s="7"/>
+    </row>
+    <row r="253" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C253" s="5"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+      <c r="K253" s="6"/>
+      <c r="L253" s="6"/>
+      <c r="M253" s="6"/>
+      <c r="N253" s="6"/>
+      <c r="O253" s="6"/>
+      <c r="P253" s="6"/>
+      <c r="Q253" s="6"/>
+      <c r="R253" s="6"/>
+      <c r="S253" s="6"/>
+      <c r="T253" s="6"/>
+      <c r="U253" s="6"/>
+      <c r="V253" s="6"/>
+      <c r="W253" s="6"/>
+      <c r="X253" s="6"/>
+      <c r="Y253" s="6"/>
+      <c r="Z253" s="6"/>
+      <c r="AA253" s="6"/>
+      <c r="AB253" s="6"/>
+      <c r="AC253" s="6"/>
+      <c r="AD253" s="6"/>
+      <c r="AE253" s="6"/>
+      <c r="AF253" s="6"/>
+      <c r="AG253" s="6"/>
+      <c r="AH253" s="6"/>
+      <c r="AI253" s="6"/>
+      <c r="AJ253" s="6"/>
+      <c r="AK253" s="7"/>
+    </row>
+    <row r="254" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C254" s="5"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+      <c r="K254" s="6"/>
+      <c r="L254" s="6"/>
+      <c r="M254" s="6"/>
+      <c r="N254" s="6"/>
+      <c r="O254" s="6"/>
+      <c r="P254" s="6"/>
+      <c r="Q254" s="6"/>
+      <c r="R254" s="6"/>
+      <c r="S254" s="6"/>
+      <c r="T254" s="6"/>
+      <c r="U254" s="6"/>
+      <c r="V254" s="6"/>
+      <c r="W254" s="6"/>
+      <c r="X254" s="6"/>
+      <c r="Y254" s="6"/>
+      <c r="Z254" s="6"/>
+      <c r="AA254" s="6"/>
+      <c r="AB254" s="6"/>
+      <c r="AC254" s="6"/>
+      <c r="AD254" s="6"/>
+      <c r="AE254" s="6"/>
+      <c r="AF254" s="6"/>
+      <c r="AG254" s="6"/>
+      <c r="AH254" s="6"/>
+      <c r="AI254" s="6"/>
+      <c r="AJ254" s="6"/>
+      <c r="AK254" s="7"/>
+    </row>
+    <row r="255" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C255" s="5"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+      <c r="K255" s="6"/>
+      <c r="L255" s="6"/>
+      <c r="M255" s="6"/>
+      <c r="N255" s="6"/>
+      <c r="O255" s="6"/>
+      <c r="P255" s="6"/>
+      <c r="Q255" s="6"/>
+      <c r="R255" s="6"/>
+      <c r="S255" s="6"/>
+      <c r="T255" s="6"/>
+      <c r="U255" s="6"/>
+      <c r="V255" s="6"/>
+      <c r="W255" s="6"/>
+      <c r="X255" s="6"/>
+      <c r="Y255" s="6"/>
+      <c r="Z255" s="6"/>
+      <c r="AA255" s="6"/>
+      <c r="AB255" s="6"/>
+      <c r="AC255" s="6"/>
+      <c r="AD255" s="6"/>
+      <c r="AE255" s="6"/>
+      <c r="AF255" s="6"/>
+      <c r="AG255" s="6"/>
+      <c r="AH255" s="6"/>
+      <c r="AI255" s="6"/>
+      <c r="AJ255" s="6"/>
+      <c r="AK255" s="7"/>
+    </row>
+    <row r="256" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C256" s="5"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
+      <c r="K256" s="6"/>
+      <c r="L256" s="6"/>
+      <c r="M256" s="6"/>
+      <c r="N256" s="6"/>
+      <c r="O256" s="6"/>
+      <c r="P256" s="6"/>
+      <c r="Q256" s="6"/>
+      <c r="R256" s="6"/>
+      <c r="S256" s="6"/>
+      <c r="T256" s="6"/>
+      <c r="U256" s="6"/>
+      <c r="V256" s="6"/>
+      <c r="W256" s="6"/>
+      <c r="X256" s="6"/>
+      <c r="Y256" s="6"/>
+      <c r="Z256" s="6"/>
+      <c r="AA256" s="6"/>
+      <c r="AB256" s="6"/>
+      <c r="AC256" s="6"/>
+      <c r="AD256" s="6"/>
+      <c r="AE256" s="6"/>
+      <c r="AF256" s="6"/>
+      <c r="AG256" s="6"/>
+      <c r="AH256" s="6"/>
+      <c r="AI256" s="6"/>
+      <c r="AJ256" s="6"/>
+      <c r="AK256" s="7"/>
+    </row>
+    <row r="257" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C257" s="5"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+      <c r="M257" s="6"/>
+      <c r="N257" s="6"/>
+      <c r="O257" s="6"/>
+      <c r="P257" s="6"/>
+      <c r="Q257" s="6"/>
+      <c r="R257" s="6"/>
+      <c r="S257" s="6"/>
+      <c r="T257" s="6"/>
+      <c r="U257" s="6"/>
+      <c r="V257" s="6"/>
+      <c r="W257" s="6"/>
+      <c r="X257" s="6"/>
+      <c r="Y257" s="6"/>
+      <c r="Z257" s="6"/>
+      <c r="AA257" s="6"/>
+      <c r="AB257" s="6"/>
+      <c r="AC257" s="6"/>
+      <c r="AD257" s="6"/>
+      <c r="AE257" s="6"/>
+      <c r="AF257" s="6"/>
+      <c r="AG257" s="6"/>
+      <c r="AH257" s="6"/>
+      <c r="AI257" s="6"/>
+      <c r="AJ257" s="6"/>
+      <c r="AK257" s="7"/>
+    </row>
+    <row r="258" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C258" s="5"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="6"/>
+      <c r="M258" s="6"/>
+      <c r="N258" s="6"/>
+      <c r="O258" s="6"/>
+      <c r="P258" s="6"/>
+      <c r="Q258" s="6"/>
+      <c r="R258" s="6"/>
+      <c r="S258" s="6"/>
+      <c r="T258" s="6"/>
+      <c r="U258" s="6"/>
+      <c r="V258" s="6"/>
+      <c r="W258" s="6"/>
+      <c r="X258" s="6"/>
+      <c r="Y258" s="6"/>
+      <c r="Z258" s="6"/>
+      <c r="AA258" s="6"/>
+      <c r="AB258" s="6"/>
+      <c r="AC258" s="6"/>
+      <c r="AD258" s="6"/>
+      <c r="AE258" s="6"/>
+      <c r="AF258" s="6"/>
+      <c r="AG258" s="6"/>
+      <c r="AH258" s="6"/>
+      <c r="AI258" s="6"/>
+      <c r="AJ258" s="6"/>
+      <c r="AK258" s="7"/>
+    </row>
+    <row r="259" spans="3:37" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C259" s="8"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="9"/>
+      <c r="I259" s="9"/>
+      <c r="J259" s="9"/>
+      <c r="K259" s="9"/>
+      <c r="L259" s="9"/>
+      <c r="M259" s="9"/>
+      <c r="N259" s="9"/>
+      <c r="O259" s="9"/>
+      <c r="P259" s="9"/>
+      <c r="Q259" s="9"/>
+      <c r="R259" s="9"/>
+      <c r="S259" s="9"/>
+      <c r="T259" s="9"/>
+      <c r="U259" s="9"/>
+      <c r="V259" s="9"/>
+      <c r="W259" s="9"/>
+      <c r="X259" s="9"/>
+      <c r="Y259" s="9"/>
+      <c r="Z259" s="9"/>
+      <c r="AA259" s="9"/>
+      <c r="AB259" s="9"/>
+      <c r="AC259" s="9"/>
+      <c r="AD259" s="9"/>
+      <c r="AE259" s="9"/>
+      <c r="AF259" s="9"/>
+      <c r="AG259" s="9"/>
+      <c r="AH259" s="9"/>
+      <c r="AI259" s="9"/>
+      <c r="AJ259" s="9"/>
+      <c r="AK259" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -37694,7 +44218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C1:AK95"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -37714,7 +44238,7 @@
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -37734,7 +44258,7 @@
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="U1" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V1" s="12"/>
       <c r="W1" s="12"/>
@@ -39256,7 +45780,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -39667,7 +46191,7 @@
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -39705,11 +46229,11 @@
       <c r="D54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -40203,7 +46727,7 @@
     <row r="67" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C67" s="5"/>
       <c r="D67" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -40243,7 +46767,7 @@
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -40319,7 +46843,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -40358,7 +46882,7 @@
       <c r="C71" s="5"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -41287,7 +47811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="C1:AK123"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -41305,7 +47829,7 @@
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -42959,7 +49483,7 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
@@ -43400,7 +49924,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -43515,13 +50039,13 @@
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -43556,13 +50080,13 @@
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -43597,13 +50121,13 @@
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -43638,13 +50162,13 @@
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -43679,13 +50203,13 @@
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -43720,13 +50244,13 @@
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -44292,7 +50816,7 @@
     <row r="80" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C80" s="5"/>
       <c r="D80" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -44369,7 +50893,7 @@
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -44445,7 +50969,7 @@
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -44485,7 +51009,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
